--- a/Mathematics/Analysis.xlsx
+++ b/Mathematics/Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandeep/Documents/StudyNotes/ICSE-X-MockTests/Mathematics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D36DB88-97B8-A243-8675-FD6409CEF906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1AF929-A597-EE4E-82EA-F636DA038311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="38400" windowHeight="24000" xr2:uid="{B4465AD6-530F-2F46-9D03-3D425B2D33AA}"/>
   </bookViews>
@@ -176,7 +176,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +192,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,7 +586,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -638,10 +644,22 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -656,22 +674,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1919,7 +1946,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I31" sqref="I31:J31"/>
+      <selection pane="topRight" activeCell="G38" sqref="G38:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1938,122 +1965,124 @@
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="43">
+      <c r="E1" s="35">
         <v>45377</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="43">
+      <c r="F1" s="36"/>
+      <c r="G1" s="35">
         <v>45381</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="43">
+      <c r="H1" s="36"/>
+      <c r="I1" s="35">
         <v>45388</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="43">
+      <c r="J1" s="36"/>
+      <c r="K1" s="35">
         <v>45395</v>
       </c>
-      <c r="L1" s="44"/>
-      <c r="M1" s="43">
+      <c r="L1" s="36"/>
+      <c r="M1" s="35">
         <v>45400</v>
       </c>
-      <c r="N1" s="44"/>
-      <c r="O1" s="43">
+      <c r="N1" s="36"/>
+      <c r="O1" s="35">
         <v>45406</v>
       </c>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="43">
+      <c r="P1" s="36"/>
+      <c r="Q1" s="35">
         <v>45410</v>
       </c>
-      <c r="R1" s="44"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="44"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="35">
+        <v>45413</v>
+      </c>
+      <c r="T1" s="36"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="45">
-        <v>1</v>
-      </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="45">
+      <c r="E2" s="37">
+        <v>1</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="37">
         <v>2</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="45">
+      <c r="H2" s="38"/>
+      <c r="I2" s="37">
         <v>3</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="45">
+      <c r="J2" s="38"/>
+      <c r="K2" s="37">
         <v>4</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="45">
+      <c r="L2" s="38"/>
+      <c r="M2" s="37">
         <v>5</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="45">
+      <c r="N2" s="38"/>
+      <c r="O2" s="37">
         <v>6</v>
       </c>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="45">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="37">
         <v>7</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="45">
+      <c r="R2" s="38"/>
+      <c r="S2" s="37">
         <v>8</v>
       </c>
-      <c r="T2" s="46"/>
-      <c r="U2" s="45">
+      <c r="T2" s="38"/>
+      <c r="U2" s="37">
         <v>9</v>
       </c>
-      <c r="V2" s="46"/>
-      <c r="W2" s="45">
+      <c r="V2" s="38"/>
+      <c r="W2" s="37">
         <v>10</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="45">
+      <c r="X2" s="38"/>
+      <c r="Y2" s="37">
         <v>11</v>
       </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="45">
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="37">
         <v>12</v>
       </c>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="45">
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="37">
         <v>13</v>
       </c>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="45">
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="37">
         <v>14</v>
       </c>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="45">
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="37">
         <v>15</v>
       </c>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="45">
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="37">
         <v>16</v>
       </c>
-      <c r="AJ2" s="46"/>
+      <c r="AJ2" s="38"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
@@ -2218,7 +2247,7 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" ref="B5:B27" si="0">SUM(E5,G5,I5,K5,M5,O5,Q5,S5,U5,W5,Y5,AA5,AC5,AE5,AG5,AI5)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5:C27" si="1">SUM(F5,H5,J5,L5,N5,P5,R5,T5,V5,X5,Z5,AB5,AD5,AF5,AH5,AJ5)</f>
@@ -2226,7 +2255,7 @@
       </c>
       <c r="D5" s="25">
         <f t="shared" ref="D5:D27" si="2">IF(B5=0,0,((B5-C5)/B5)*100)</f>
-        <v>87.5</v>
+        <v>90</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="8"/>
@@ -2252,8 +2281,10 @@
       <c r="R5" s="8">
         <v>1</v>
       </c>
-      <c r="S5" s="16"/>
-      <c r="T5" s="8"/>
+      <c r="S5" s="16">
+        <v>2</v>
+      </c>
+      <c r="T5" s="47"/>
       <c r="U5" s="16"/>
       <c r="V5" s="8"/>
       <c r="W5" s="16"/>
@@ -2302,7 +2333,7 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="8"/>
       <c r="S6" s="16"/>
-      <c r="T6" s="8"/>
+      <c r="T6" s="47"/>
       <c r="U6" s="16"/>
       <c r="V6" s="8"/>
       <c r="W6" s="16"/>
@@ -2326,7 +2357,7 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="1"/>
@@ -2334,7 +2365,7 @@
       </c>
       <c r="D7" s="25">
         <f t="shared" si="2"/>
-        <v>78.571428571428569</v>
+        <v>81.25</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
@@ -2368,8 +2399,10 @@
         <v>1</v>
       </c>
       <c r="R7" s="8"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="8"/>
+      <c r="S7" s="16">
+        <v>2</v>
+      </c>
+      <c r="T7" s="47"/>
       <c r="U7" s="16"/>
       <c r="V7" s="8"/>
       <c r="W7" s="16"/>
@@ -2393,7 +2426,7 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
@@ -2401,7 +2434,7 @@
       </c>
       <c r="D8" s="25">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>82.35294117647058</v>
       </c>
       <c r="E8" s="16">
         <v>4</v>
@@ -2437,8 +2470,10 @@
         <v>2</v>
       </c>
       <c r="R8" s="8"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="8"/>
+      <c r="S8" s="16">
+        <v>2</v>
+      </c>
+      <c r="T8" s="47"/>
       <c r="U8" s="16"/>
       <c r="V8" s="8"/>
       <c r="W8" s="16"/>
@@ -2462,7 +2497,7 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="1"/>
@@ -2494,8 +2529,10 @@
         <v>2</v>
       </c>
       <c r="R9" s="8"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="8"/>
+      <c r="S9" s="16">
+        <v>2</v>
+      </c>
+      <c r="T9" s="47"/>
       <c r="U9" s="16"/>
       <c r="V9" s="8"/>
       <c r="W9" s="16"/>
@@ -2519,7 +2556,7 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="1"/>
@@ -2527,7 +2564,7 @@
       </c>
       <c r="D10" s="25">
         <f t="shared" si="2"/>
-        <v>78.571428571428569</v>
+        <v>81.25</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="8"/>
@@ -2559,8 +2596,10 @@
         <v>2</v>
       </c>
       <c r="R10" s="8"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="8"/>
+      <c r="S10" s="16">
+        <v>2</v>
+      </c>
+      <c r="T10" s="47"/>
       <c r="U10" s="16"/>
       <c r="V10" s="8"/>
       <c r="W10" s="16"/>
@@ -2584,7 +2623,7 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="1"/>
@@ -2592,7 +2631,7 @@
       </c>
       <c r="D11" s="25">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>76.470588235294116</v>
       </c>
       <c r="E11" s="16">
         <v>3</v>
@@ -2630,8 +2669,10 @@
       <c r="R11" s="8">
         <v>1</v>
       </c>
-      <c r="S11" s="16"/>
-      <c r="T11" s="8"/>
+      <c r="S11" s="16">
+        <v>1</v>
+      </c>
+      <c r="T11" s="47"/>
       <c r="U11" s="16"/>
       <c r="V11" s="8"/>
       <c r="W11" s="16"/>
@@ -2680,7 +2721,7 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="8"/>
       <c r="S12" s="16"/>
-      <c r="T12" s="8"/>
+      <c r="T12" s="47"/>
       <c r="U12" s="16"/>
       <c r="V12" s="8"/>
       <c r="W12" s="16"/>
@@ -2729,7 +2770,7 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="8"/>
       <c r="S13" s="16"/>
-      <c r="T13" s="8"/>
+      <c r="T13" s="47"/>
       <c r="U13" s="16"/>
       <c r="V13" s="8"/>
       <c r="W13" s="16"/>
@@ -2778,7 +2819,7 @@
       <c r="Q14" s="16"/>
       <c r="R14" s="8"/>
       <c r="S14" s="16"/>
-      <c r="T14" s="8"/>
+      <c r="T14" s="47"/>
       <c r="U14" s="16"/>
       <c r="V14" s="8"/>
       <c r="W14" s="16"/>
@@ -2827,7 +2868,7 @@
       <c r="Q15" s="16"/>
       <c r="R15" s="8"/>
       <c r="S15" s="16"/>
-      <c r="T15" s="8"/>
+      <c r="T15" s="47"/>
       <c r="U15" s="16"/>
       <c r="V15" s="8"/>
       <c r="W15" s="16"/>
@@ -2876,7 +2917,7 @@
       <c r="Q16" s="16"/>
       <c r="R16" s="8"/>
       <c r="S16" s="16"/>
-      <c r="T16" s="8"/>
+      <c r="T16" s="47"/>
       <c r="U16" s="16"/>
       <c r="V16" s="8"/>
       <c r="W16" s="16"/>
@@ -2925,7 +2966,7 @@
       <c r="Q17" s="16"/>
       <c r="R17" s="8"/>
       <c r="S17" s="16"/>
-      <c r="T17" s="8"/>
+      <c r="T17" s="47"/>
       <c r="U17" s="16"/>
       <c r="V17" s="8"/>
       <c r="W17" s="16"/>
@@ -2974,7 +3015,7 @@
       <c r="Q18" s="16"/>
       <c r="R18" s="8"/>
       <c r="S18" s="16"/>
-      <c r="T18" s="8"/>
+      <c r="T18" s="47"/>
       <c r="U18" s="16"/>
       <c r="V18" s="8"/>
       <c r="W18" s="16"/>
@@ -3023,7 +3064,7 @@
       <c r="Q19" s="16"/>
       <c r="R19" s="8"/>
       <c r="S19" s="16"/>
-      <c r="T19" s="8"/>
+      <c r="T19" s="47"/>
       <c r="U19" s="16"/>
       <c r="V19" s="8"/>
       <c r="W19" s="16"/>
@@ -3072,7 +3113,7 @@
       <c r="Q20" s="16"/>
       <c r="R20" s="8"/>
       <c r="S20" s="16"/>
-      <c r="T20" s="8"/>
+      <c r="T20" s="47"/>
       <c r="U20" s="16"/>
       <c r="V20" s="8"/>
       <c r="W20" s="16"/>
@@ -3121,7 +3162,7 @@
       <c r="Q21" s="16"/>
       <c r="R21" s="8"/>
       <c r="S21" s="16"/>
-      <c r="T21" s="8"/>
+      <c r="T21" s="47"/>
       <c r="U21" s="16"/>
       <c r="V21" s="8"/>
       <c r="W21" s="16"/>
@@ -3170,7 +3211,7 @@
       <c r="Q22" s="16"/>
       <c r="R22" s="8"/>
       <c r="S22" s="16"/>
-      <c r="T22" s="8"/>
+      <c r="T22" s="47"/>
       <c r="U22" s="16"/>
       <c r="V22" s="8"/>
       <c r="W22" s="16"/>
@@ -3194,7 +3235,7 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
@@ -3202,7 +3243,7 @@
       </c>
       <c r="D23" s="25">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>81.25</v>
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
@@ -3234,8 +3275,10 @@
         <v>3</v>
       </c>
       <c r="R23" s="8"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="8"/>
+      <c r="S23" s="16">
+        <v>1</v>
+      </c>
+      <c r="T23" s="47"/>
       <c r="U23" s="16"/>
       <c r="V23" s="8"/>
       <c r="W23" s="16"/>
@@ -3253,13 +3296,13 @@
       <c r="AI23" s="16"/>
       <c r="AJ23" s="8"/>
     </row>
-    <row r="24" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
@@ -3267,7 +3310,7 @@
       </c>
       <c r="D24" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="8"/>
@@ -3283,8 +3326,10 @@
       <c r="P24" s="8"/>
       <c r="Q24" s="16"/>
       <c r="R24" s="8"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="8"/>
+      <c r="S24" s="16">
+        <v>1</v>
+      </c>
+      <c r="T24" s="47"/>
       <c r="U24" s="16"/>
       <c r="V24" s="8"/>
       <c r="W24" s="16"/>
@@ -3333,7 +3378,7 @@
       <c r="Q25" s="16"/>
       <c r="R25" s="8"/>
       <c r="S25" s="16"/>
-      <c r="T25" s="8"/>
+      <c r="T25" s="47"/>
       <c r="U25" s="16"/>
       <c r="V25" s="8"/>
       <c r="W25" s="16"/>
@@ -3357,7 +3402,7 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="1"/>
@@ -3365,7 +3410,7 @@
       </c>
       <c r="D26" s="25">
         <f t="shared" si="2"/>
-        <v>83.333333333333343</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="E26" s="16">
         <v>2</v>
@@ -3397,8 +3442,10 @@
         <v>1</v>
       </c>
       <c r="R26" s="8"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="8"/>
+      <c r="S26" s="16">
+        <v>2</v>
+      </c>
+      <c r="T26" s="47"/>
       <c r="U26" s="16"/>
       <c r="V26" s="8"/>
       <c r="W26" s="16"/>
@@ -3471,7 +3518,7 @@
       </c>
       <c r="B28" s="20">
         <f>SUM(B4:B27)</f>
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C28" s="20">
         <f>SUM(C4:C27)</f>
@@ -3479,7 +3526,7 @@
       </c>
       <c r="D28" s="24">
         <f>((B28-C28)/B28)*100</f>
-        <v>81.188118811881196</v>
+        <v>83.620689655172413</v>
       </c>
       <c r="E28" s="21">
         <f>SUM(E4:E27)</f>
@@ -3539,7 +3586,7 @@
       </c>
       <c r="S28" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T28" s="22">
         <f t="shared" si="3"/>
@@ -3623,42 +3670,42 @@
         <f>C31/$C$28</f>
         <v>0.15789473684210525</v>
       </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="41">
-        <v>1</v>
-      </c>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="41">
+      <c r="E31" s="39"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="39">
+        <v>1</v>
+      </c>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="39">
         <v>2</v>
       </c>
-      <c r="R31" s="42"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="42"/>
-      <c r="W31" s="41"/>
-      <c r="X31" s="42"/>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="42"/>
-      <c r="AA31" s="41"/>
-      <c r="AB31" s="42"/>
-      <c r="AC31" s="41"/>
-      <c r="AD31" s="42"/>
-      <c r="AE31" s="41"/>
-      <c r="AF31" s="42"/>
-      <c r="AG31" s="41"/>
-      <c r="AH31" s="42"/>
-      <c r="AI31" s="41"/>
-      <c r="AJ31" s="42"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="40"/>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="40"/>
+      <c r="AC31" s="39"/>
+      <c r="AD31" s="40"/>
+      <c r="AE31" s="39"/>
+      <c r="AF31" s="40"/>
+      <c r="AG31" s="39"/>
+      <c r="AH31" s="40"/>
+      <c r="AI31" s="39"/>
+      <c r="AJ31" s="40"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
@@ -3673,40 +3720,40 @@
         <f t="shared" ref="D32:D42" si="5">C32/$C$28</f>
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="37">
-        <v>1</v>
-      </c>
-      <c r="L32" s="38"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="38"/>
-      <c r="AA32" s="37"/>
-      <c r="AB32" s="38"/>
-      <c r="AC32" s="37"/>
-      <c r="AD32" s="38"/>
-      <c r="AE32" s="37"/>
-      <c r="AF32" s="38"/>
-      <c r="AG32" s="37"/>
-      <c r="AH32" s="38"/>
-      <c r="AI32" s="37"/>
-      <c r="AJ32" s="38"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="41">
+        <v>1</v>
+      </c>
+      <c r="L32" s="42"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="42"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="42"/>
+      <c r="AA32" s="41"/>
+      <c r="AB32" s="42"/>
+      <c r="AC32" s="41"/>
+      <c r="AD32" s="42"/>
+      <c r="AE32" s="41"/>
+      <c r="AF32" s="42"/>
+      <c r="AG32" s="41"/>
+      <c r="AH32" s="42"/>
+      <c r="AI32" s="41"/>
+      <c r="AJ32" s="42"/>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
@@ -3721,38 +3768,38 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="38"/>
-      <c r="AA33" s="37"/>
-      <c r="AB33" s="38"/>
-      <c r="AC33" s="37"/>
-      <c r="AD33" s="38"/>
-      <c r="AE33" s="37"/>
-      <c r="AF33" s="38"/>
-      <c r="AG33" s="37"/>
-      <c r="AH33" s="38"/>
-      <c r="AI33" s="37"/>
-      <c r="AJ33" s="38"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="42"/>
+      <c r="W33" s="41"/>
+      <c r="X33" s="42"/>
+      <c r="Y33" s="41"/>
+      <c r="Z33" s="42"/>
+      <c r="AA33" s="41"/>
+      <c r="AB33" s="42"/>
+      <c r="AC33" s="41"/>
+      <c r="AD33" s="42"/>
+      <c r="AE33" s="41"/>
+      <c r="AF33" s="42"/>
+      <c r="AG33" s="41"/>
+      <c r="AH33" s="42"/>
+      <c r="AI33" s="41"/>
+      <c r="AJ33" s="42"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" s="34" t="s">
@@ -3767,44 +3814,44 @@
         <f t="shared" si="5"/>
         <v>0.15789473684210525</v>
       </c>
-      <c r="E34" s="37">
-        <v>1</v>
-      </c>
-      <c r="F34" s="38"/>
-      <c r="G34" s="37">
-        <v>1</v>
-      </c>
-      <c r="H34" s="38"/>
-      <c r="I34" s="37">
-        <v>1</v>
-      </c>
-      <c r="J34" s="38"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="38"/>
-      <c r="AA34" s="37"/>
-      <c r="AB34" s="38"/>
-      <c r="AC34" s="37"/>
-      <c r="AD34" s="38"/>
-      <c r="AE34" s="37"/>
-      <c r="AF34" s="38"/>
-      <c r="AG34" s="37"/>
-      <c r="AH34" s="38"/>
-      <c r="AI34" s="37"/>
-      <c r="AJ34" s="38"/>
+      <c r="E34" s="41">
+        <v>1</v>
+      </c>
+      <c r="F34" s="42"/>
+      <c r="G34" s="41">
+        <v>1</v>
+      </c>
+      <c r="H34" s="42"/>
+      <c r="I34" s="41">
+        <v>1</v>
+      </c>
+      <c r="J34" s="42"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="41"/>
+      <c r="V34" s="42"/>
+      <c r="W34" s="41"/>
+      <c r="X34" s="42"/>
+      <c r="Y34" s="41"/>
+      <c r="Z34" s="42"/>
+      <c r="AA34" s="41"/>
+      <c r="AB34" s="42"/>
+      <c r="AC34" s="41"/>
+      <c r="AD34" s="42"/>
+      <c r="AE34" s="41"/>
+      <c r="AF34" s="42"/>
+      <c r="AG34" s="41"/>
+      <c r="AH34" s="42"/>
+      <c r="AI34" s="41"/>
+      <c r="AJ34" s="42"/>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" s="34" t="s">
@@ -3819,42 +3866,42 @@
         <f t="shared" si="5"/>
         <v>0.15789473684210525</v>
       </c>
-      <c r="E35" s="37"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="37">
-        <v>1</v>
-      </c>
-      <c r="H35" s="38"/>
-      <c r="I35" s="37">
+      <c r="E35" s="41"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="41">
+        <v>1</v>
+      </c>
+      <c r="H35" s="42"/>
+      <c r="I35" s="41">
         <v>2</v>
       </c>
-      <c r="J35" s="38"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="38"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="38"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="38"/>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="38"/>
-      <c r="AA35" s="37"/>
-      <c r="AB35" s="38"/>
-      <c r="AC35" s="37"/>
-      <c r="AD35" s="38"/>
-      <c r="AE35" s="37"/>
-      <c r="AF35" s="38"/>
-      <c r="AG35" s="37"/>
-      <c r="AH35" s="38"/>
-      <c r="AI35" s="37"/>
-      <c r="AJ35" s="38"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="42"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="42"/>
+      <c r="Y35" s="41"/>
+      <c r="Z35" s="42"/>
+      <c r="AA35" s="41"/>
+      <c r="AB35" s="42"/>
+      <c r="AC35" s="41"/>
+      <c r="AD35" s="42"/>
+      <c r="AE35" s="41"/>
+      <c r="AF35" s="42"/>
+      <c r="AG35" s="41"/>
+      <c r="AH35" s="42"/>
+      <c r="AI35" s="41"/>
+      <c r="AJ35" s="42"/>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" s="27" t="s">
@@ -3869,42 +3916,42 @@
         <f t="shared" si="5"/>
         <v>0.21052631578947367</v>
       </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="39">
-        <v>1</v>
-      </c>
-      <c r="H36" s="40"/>
-      <c r="I36" s="39">
+      <c r="E36" s="43"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="43">
+        <v>1</v>
+      </c>
+      <c r="H36" s="44"/>
+      <c r="I36" s="43">
         <v>3</v>
       </c>
-      <c r="J36" s="40"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="40"/>
-      <c r="U36" s="39"/>
-      <c r="V36" s="40"/>
-      <c r="W36" s="39"/>
-      <c r="X36" s="40"/>
-      <c r="Y36" s="39"/>
-      <c r="Z36" s="40"/>
-      <c r="AA36" s="39"/>
-      <c r="AB36" s="40"/>
-      <c r="AC36" s="39"/>
-      <c r="AD36" s="40"/>
-      <c r="AE36" s="39"/>
-      <c r="AF36" s="40"/>
-      <c r="AG36" s="39"/>
-      <c r="AH36" s="40"/>
-      <c r="AI36" s="39"/>
-      <c r="AJ36" s="40"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="50"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="44"/>
+      <c r="W36" s="43"/>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="43"/>
+      <c r="Z36" s="44"/>
+      <c r="AA36" s="43"/>
+      <c r="AB36" s="44"/>
+      <c r="AC36" s="43"/>
+      <c r="AD36" s="44"/>
+      <c r="AE36" s="43"/>
+      <c r="AF36" s="44"/>
+      <c r="AG36" s="43"/>
+      <c r="AH36" s="44"/>
+      <c r="AI36" s="43"/>
+      <c r="AJ36" s="44"/>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" s="34" t="s">
@@ -3919,42 +3966,42 @@
         <f t="shared" si="5"/>
         <v>0.10526315789473684</v>
       </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="37">
-        <v>1</v>
-      </c>
-      <c r="H37" s="38"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="37">
-        <v>1</v>
-      </c>
-      <c r="N37" s="38"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="38"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="38"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="38"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="38"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="38"/>
-      <c r="AC37" s="37"/>
-      <c r="AD37" s="38"/>
-      <c r="AE37" s="37"/>
-      <c r="AF37" s="38"/>
-      <c r="AG37" s="37"/>
-      <c r="AH37" s="38"/>
-      <c r="AI37" s="37"/>
-      <c r="AJ37" s="38"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="41">
+        <v>1</v>
+      </c>
+      <c r="H37" s="42"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="41">
+        <v>1</v>
+      </c>
+      <c r="N37" s="42"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="50"/>
+      <c r="T37" s="51"/>
+      <c r="U37" s="41"/>
+      <c r="V37" s="42"/>
+      <c r="W37" s="41"/>
+      <c r="X37" s="42"/>
+      <c r="Y37" s="41"/>
+      <c r="Z37" s="42"/>
+      <c r="AA37" s="41"/>
+      <c r="AB37" s="42"/>
+      <c r="AC37" s="41"/>
+      <c r="AD37" s="42"/>
+      <c r="AE37" s="41"/>
+      <c r="AF37" s="42"/>
+      <c r="AG37" s="41"/>
+      <c r="AH37" s="42"/>
+      <c r="AI37" s="41"/>
+      <c r="AJ37" s="42"/>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
@@ -3969,40 +4016,40 @@
         <f t="shared" si="5"/>
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="E38" s="37"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="37">
-        <v>1</v>
-      </c>
-      <c r="L38" s="38"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="38"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="38"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="38"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="38"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="38"/>
-      <c r="AA38" s="37"/>
-      <c r="AB38" s="38"/>
-      <c r="AC38" s="37"/>
-      <c r="AD38" s="38"/>
-      <c r="AE38" s="37"/>
-      <c r="AF38" s="38"/>
-      <c r="AG38" s="37"/>
-      <c r="AH38" s="38"/>
-      <c r="AI38" s="37"/>
-      <c r="AJ38" s="38"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="41">
+        <v>1</v>
+      </c>
+      <c r="L38" s="42"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="50"/>
+      <c r="T38" s="51"/>
+      <c r="U38" s="41"/>
+      <c r="V38" s="42"/>
+      <c r="W38" s="41"/>
+      <c r="X38" s="42"/>
+      <c r="Y38" s="41"/>
+      <c r="Z38" s="42"/>
+      <c r="AA38" s="41"/>
+      <c r="AB38" s="42"/>
+      <c r="AC38" s="41"/>
+      <c r="AD38" s="42"/>
+      <c r="AE38" s="41"/>
+      <c r="AF38" s="42"/>
+      <c r="AG38" s="41"/>
+      <c r="AH38" s="42"/>
+      <c r="AI38" s="41"/>
+      <c r="AJ38" s="42"/>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
@@ -4017,40 +4064,40 @@
         <f t="shared" si="5"/>
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="37">
-        <v>1</v>
-      </c>
-      <c r="P39" s="38"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="38"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="38"/>
-      <c r="U39" s="37"/>
-      <c r="V39" s="38"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="38"/>
-      <c r="Y39" s="37"/>
-      <c r="Z39" s="38"/>
-      <c r="AA39" s="37"/>
-      <c r="AB39" s="38"/>
-      <c r="AC39" s="37"/>
-      <c r="AD39" s="38"/>
-      <c r="AE39" s="37"/>
-      <c r="AF39" s="38"/>
-      <c r="AG39" s="37"/>
-      <c r="AH39" s="38"/>
-      <c r="AI39" s="37"/>
-      <c r="AJ39" s="38"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="41">
+        <v>1</v>
+      </c>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="50"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="42"/>
+      <c r="W39" s="41"/>
+      <c r="X39" s="42"/>
+      <c r="Y39" s="41"/>
+      <c r="Z39" s="42"/>
+      <c r="AA39" s="41"/>
+      <c r="AB39" s="42"/>
+      <c r="AC39" s="41"/>
+      <c r="AD39" s="42"/>
+      <c r="AE39" s="41"/>
+      <c r="AF39" s="42"/>
+      <c r="AG39" s="41"/>
+      <c r="AH39" s="42"/>
+      <c r="AI39" s="41"/>
+      <c r="AJ39" s="42"/>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
@@ -4065,40 +4112,40 @@
         <f t="shared" si="5"/>
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="E40" s="37"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="37">
-        <v>1</v>
-      </c>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="38"/>
-      <c r="U40" s="37"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="37"/>
-      <c r="X40" s="38"/>
-      <c r="Y40" s="37"/>
-      <c r="Z40" s="38"/>
-      <c r="AA40" s="37"/>
-      <c r="AB40" s="38"/>
-      <c r="AC40" s="37"/>
-      <c r="AD40" s="38"/>
-      <c r="AE40" s="37"/>
-      <c r="AF40" s="38"/>
-      <c r="AG40" s="37"/>
-      <c r="AH40" s="38"/>
-      <c r="AI40" s="37"/>
-      <c r="AJ40" s="38"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="41">
+        <v>1</v>
+      </c>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="50"/>
+      <c r="T40" s="51"/>
+      <c r="U40" s="41"/>
+      <c r="V40" s="42"/>
+      <c r="W40" s="41"/>
+      <c r="X40" s="42"/>
+      <c r="Y40" s="41"/>
+      <c r="Z40" s="42"/>
+      <c r="AA40" s="41"/>
+      <c r="AB40" s="42"/>
+      <c r="AC40" s="41"/>
+      <c r="AD40" s="42"/>
+      <c r="AE40" s="41"/>
+      <c r="AF40" s="42"/>
+      <c r="AG40" s="41"/>
+      <c r="AH40" s="42"/>
+      <c r="AI40" s="41"/>
+      <c r="AJ40" s="42"/>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
@@ -4111,38 +4158,38 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E41" s="37"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="38"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="38"/>
-      <c r="U41" s="37"/>
-      <c r="V41" s="38"/>
-      <c r="W41" s="37"/>
-      <c r="X41" s="38"/>
-      <c r="Y41" s="37"/>
-      <c r="Z41" s="38"/>
-      <c r="AA41" s="37"/>
-      <c r="AB41" s="38"/>
-      <c r="AC41" s="37"/>
-      <c r="AD41" s="38"/>
-      <c r="AE41" s="37"/>
-      <c r="AF41" s="38"/>
-      <c r="AG41" s="37"/>
-      <c r="AH41" s="38"/>
-      <c r="AI41" s="37"/>
-      <c r="AJ41" s="38"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="50"/>
+      <c r="T41" s="51"/>
+      <c r="U41" s="41"/>
+      <c r="V41" s="42"/>
+      <c r="W41" s="41"/>
+      <c r="X41" s="42"/>
+      <c r="Y41" s="41"/>
+      <c r="Z41" s="42"/>
+      <c r="AA41" s="41"/>
+      <c r="AB41" s="42"/>
+      <c r="AC41" s="41"/>
+      <c r="AD41" s="42"/>
+      <c r="AE41" s="41"/>
+      <c r="AF41" s="42"/>
+      <c r="AG41" s="41"/>
+      <c r="AH41" s="42"/>
+      <c r="AI41" s="41"/>
+      <c r="AJ41" s="42"/>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
@@ -4155,38 +4202,38 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E42" s="35"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="36"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="36"/>
-      <c r="S42" s="35"/>
-      <c r="T42" s="36"/>
-      <c r="U42" s="35"/>
-      <c r="V42" s="36"/>
-      <c r="W42" s="35"/>
-      <c r="X42" s="36"/>
-      <c r="Y42" s="35"/>
-      <c r="Z42" s="36"/>
-      <c r="AA42" s="35"/>
-      <c r="AB42" s="36"/>
-      <c r="AC42" s="35"/>
-      <c r="AD42" s="36"/>
-      <c r="AE42" s="35"/>
-      <c r="AF42" s="36"/>
-      <c r="AG42" s="35"/>
-      <c r="AH42" s="36"/>
-      <c r="AI42" s="35"/>
-      <c r="AJ42" s="36"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="52"/>
+      <c r="T42" s="53"/>
+      <c r="U42" s="45"/>
+      <c r="V42" s="46"/>
+      <c r="W42" s="45"/>
+      <c r="X42" s="46"/>
+      <c r="Y42" s="45"/>
+      <c r="Z42" s="46"/>
+      <c r="AA42" s="45"/>
+      <c r="AB42" s="46"/>
+      <c r="AC42" s="45"/>
+      <c r="AD42" s="46"/>
+      <c r="AE42" s="45"/>
+      <c r="AF42" s="46"/>
+      <c r="AG42" s="45"/>
+      <c r="AH42" s="46"/>
+      <c r="AI42" s="45"/>
+      <c r="AJ42" s="46"/>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
@@ -4228,20 +4275,192 @@
     </row>
   </sheetData>
   <mergeCells count="224">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="AC42:AD42"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="AC40:AD40"/>
+    <mergeCell ref="AE40:AF40"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="AI40:AJ40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="Y40:Z40"/>
+    <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="AC41:AD41"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="AG41:AH41"/>
+    <mergeCell ref="AI41:AJ41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="AA41:AB41"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="AC38:AD38"/>
+    <mergeCell ref="AE38:AF38"/>
+    <mergeCell ref="AG38:AH38"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="AA38:AB38"/>
+    <mergeCell ref="AC39:AD39"/>
+    <mergeCell ref="AE39:AF39"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AI39:AJ39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="AA39:AB39"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="AC36:AD36"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AE37:AF37"/>
+    <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="AA37:AB37"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="AA35:AB35"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="AC32:AD32"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AC31:AD31"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
@@ -4266,192 +4485,20 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="AA32:AB32"/>
-    <mergeCell ref="AC32:AD32"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="AA35:AB35"/>
-    <mergeCell ref="AC36:AD36"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="AE37:AF37"/>
-    <mergeCell ref="AG37:AH37"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="Y37:Z37"/>
-    <mergeCell ref="AA37:AB37"/>
-    <mergeCell ref="AC38:AD38"/>
-    <mergeCell ref="AE38:AF38"/>
-    <mergeCell ref="AG38:AH38"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="Y38:Z38"/>
-    <mergeCell ref="AA38:AB38"/>
-    <mergeCell ref="AC39:AD39"/>
-    <mergeCell ref="AE39:AF39"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AI39:AJ39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="AA39:AB39"/>
-    <mergeCell ref="AC40:AD40"/>
-    <mergeCell ref="AE40:AF40"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="AI40:AJ40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="Y40:Z40"/>
-    <mergeCell ref="AA40:AB40"/>
-    <mergeCell ref="AC41:AD41"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="AG41:AH41"/>
-    <mergeCell ref="AI41:AJ41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="AA41:AB41"/>
-    <mergeCell ref="AC42:AD42"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D27">
     <cfRule type="colorScale" priority="3">
@@ -4462,6 +4509,16 @@
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D26">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF92D050"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -4477,16 +4534,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D26">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="100"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF92D050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D28" formula="1"/>

--- a/Mathematics/Analysis.xlsx
+++ b/Mathematics/Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandeep/Documents/StudyNotes/ICSE-X-MockTests/Mathematics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1AF929-A597-EE4E-82EA-F636DA038311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE091A6-5D8A-4843-86AF-ADD65C7FB545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="38400" windowHeight="24000" xr2:uid="{B4465AD6-530F-2F46-9D03-3D425B2D33AA}"/>
   </bookViews>
@@ -644,6 +644,51 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -654,51 +699,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1946,7 +1946,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G38" sqref="G38:H38"/>
+      <selection pane="topRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1965,124 +1965,126 @@
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="35">
+      <c r="E1" s="50">
         <v>45377</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="35">
+      <c r="F1" s="51"/>
+      <c r="G1" s="50">
         <v>45381</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="35">
+      <c r="H1" s="51"/>
+      <c r="I1" s="50">
         <v>45388</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="35">
+      <c r="J1" s="51"/>
+      <c r="K1" s="50">
         <v>45395</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="35">
+      <c r="L1" s="51"/>
+      <c r="M1" s="50">
         <v>45400</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="35">
+      <c r="N1" s="51"/>
+      <c r="O1" s="50">
         <v>45406</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="35">
+      <c r="P1" s="51"/>
+      <c r="Q1" s="50">
         <v>45410</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="S1" s="35">
+      <c r="R1" s="51"/>
+      <c r="S1" s="50">
         <v>45413</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="36"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="50">
+        <v>45417</v>
+      </c>
+      <c r="V1" s="51"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="51"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="37">
-        <v>1</v>
-      </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="37">
-        <v>2</v>
-      </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="37">
+      <c r="E2" s="52">
+        <v>1</v>
+      </c>
+      <c r="F2" s="53"/>
+      <c r="G2" s="52">
+        <v>2</v>
+      </c>
+      <c r="H2" s="53"/>
+      <c r="I2" s="52">
         <v>3</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="37">
+      <c r="J2" s="53"/>
+      <c r="K2" s="52">
         <v>4</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="37">
+      <c r="L2" s="53"/>
+      <c r="M2" s="52">
         <v>5</v>
       </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="37">
+      <c r="N2" s="53"/>
+      <c r="O2" s="52">
         <v>6</v>
       </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="37">
+      <c r="P2" s="53"/>
+      <c r="Q2" s="52">
         <v>7</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="37">
+      <c r="R2" s="53"/>
+      <c r="S2" s="52">
         <v>8</v>
       </c>
-      <c r="T2" s="38"/>
-      <c r="U2" s="37">
+      <c r="T2" s="53"/>
+      <c r="U2" s="52">
         <v>9</v>
       </c>
-      <c r="V2" s="38"/>
-      <c r="W2" s="37">
+      <c r="V2" s="53"/>
+      <c r="W2" s="52">
         <v>10</v>
       </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="37">
+      <c r="X2" s="53"/>
+      <c r="Y2" s="52">
         <v>11</v>
       </c>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="37">
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="52">
         <v>12</v>
       </c>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="37">
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="52">
         <v>13</v>
       </c>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="37">
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="52">
         <v>14</v>
       </c>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="37">
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="52">
         <v>15</v>
       </c>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="37">
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="52">
         <v>16</v>
       </c>
-      <c r="AJ2" s="38"/>
+      <c r="AJ2" s="53"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
@@ -2247,7 +2249,7 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" ref="B5:B27" si="0">SUM(E5,G5,I5,K5,M5,O5,Q5,S5,U5,W5,Y5,AA5,AC5,AE5,AG5,AI5)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5:C27" si="1">SUM(F5,H5,J5,L5,N5,P5,R5,T5,V5,X5,Z5,AB5,AD5,AF5,AH5,AJ5)</f>
@@ -2255,7 +2257,7 @@
       </c>
       <c r="D5" s="25">
         <f t="shared" ref="D5:D27" si="2">IF(B5=0,0,((B5-C5)/B5)*100)</f>
-        <v>90</v>
+        <v>91.666666666666657</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="8"/>
@@ -2284,9 +2286,11 @@
       <c r="S5" s="16">
         <v>2</v>
       </c>
-      <c r="T5" s="47"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="8"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="16">
+        <v>2</v>
+      </c>
+      <c r="V5" s="35"/>
       <c r="W5" s="16"/>
       <c r="X5" s="8"/>
       <c r="Y5" s="16"/>
@@ -2333,9 +2337,9 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="8"/>
       <c r="S6" s="16"/>
-      <c r="T6" s="47"/>
+      <c r="T6" s="35"/>
       <c r="U6" s="16"/>
-      <c r="V6" s="8"/>
+      <c r="V6" s="35"/>
       <c r="W6" s="16"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="16"/>
@@ -2357,7 +2361,7 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="1"/>
@@ -2365,7 +2369,7 @@
       </c>
       <c r="D7" s="25">
         <f t="shared" si="2"/>
-        <v>81.25</v>
+        <v>82.35294117647058</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
@@ -2402,9 +2406,11 @@
       <c r="S7" s="16">
         <v>2</v>
       </c>
-      <c r="T7" s="47"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="8"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="16">
+        <v>1</v>
+      </c>
+      <c r="V7" s="35"/>
       <c r="W7" s="16"/>
       <c r="X7" s="8"/>
       <c r="Y7" s="16"/>
@@ -2426,7 +2432,7 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
@@ -2434,7 +2440,7 @@
       </c>
       <c r="D8" s="25">
         <f t="shared" si="2"/>
-        <v>82.35294117647058</v>
+        <v>84.210526315789465</v>
       </c>
       <c r="E8" s="16">
         <v>4</v>
@@ -2473,9 +2479,11 @@
       <c r="S8" s="16">
         <v>2</v>
       </c>
-      <c r="T8" s="47"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="8"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="16">
+        <v>2</v>
+      </c>
+      <c r="V8" s="35"/>
       <c r="W8" s="16"/>
       <c r="X8" s="8"/>
       <c r="Y8" s="16"/>
@@ -2497,7 +2505,7 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="1"/>
@@ -2532,9 +2540,11 @@
       <c r="S9" s="16">
         <v>2</v>
       </c>
-      <c r="T9" s="47"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="8"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="16">
+        <v>1</v>
+      </c>
+      <c r="V9" s="35"/>
       <c r="W9" s="16"/>
       <c r="X9" s="8"/>
       <c r="Y9" s="16"/>
@@ -2556,7 +2566,7 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="1"/>
@@ -2564,7 +2574,7 @@
       </c>
       <c r="D10" s="25">
         <f t="shared" si="2"/>
-        <v>81.25</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="8"/>
@@ -2599,9 +2609,11 @@
       <c r="S10" s="16">
         <v>2</v>
       </c>
-      <c r="T10" s="47"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="8"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="16">
+        <v>2</v>
+      </c>
+      <c r="V10" s="35"/>
       <c r="W10" s="16"/>
       <c r="X10" s="8"/>
       <c r="Y10" s="16"/>
@@ -2623,7 +2635,7 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="1"/>
@@ -2631,7 +2643,7 @@
       </c>
       <c r="D11" s="25">
         <f t="shared" si="2"/>
-        <v>76.470588235294116</v>
+        <v>80</v>
       </c>
       <c r="E11" s="16">
         <v>3</v>
@@ -2672,9 +2684,11 @@
       <c r="S11" s="16">
         <v>1</v>
       </c>
-      <c r="T11" s="47"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="8"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="16">
+        <v>3</v>
+      </c>
+      <c r="V11" s="35"/>
       <c r="W11" s="16"/>
       <c r="X11" s="8"/>
       <c r="Y11" s="16"/>
@@ -2721,9 +2735,9 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="8"/>
       <c r="S12" s="16"/>
-      <c r="T12" s="47"/>
+      <c r="T12" s="35"/>
       <c r="U12" s="16"/>
-      <c r="V12" s="8"/>
+      <c r="V12" s="35"/>
       <c r="W12" s="16"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="16"/>
@@ -2770,9 +2784,9 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="8"/>
       <c r="S13" s="16"/>
-      <c r="T13" s="47"/>
+      <c r="T13" s="35"/>
       <c r="U13" s="16"/>
-      <c r="V13" s="8"/>
+      <c r="V13" s="35"/>
       <c r="W13" s="16"/>
       <c r="X13" s="8"/>
       <c r="Y13" s="16"/>
@@ -2819,9 +2833,9 @@
       <c r="Q14" s="16"/>
       <c r="R14" s="8"/>
       <c r="S14" s="16"/>
-      <c r="T14" s="47"/>
+      <c r="T14" s="35"/>
       <c r="U14" s="16"/>
-      <c r="V14" s="8"/>
+      <c r="V14" s="35"/>
       <c r="W14" s="16"/>
       <c r="X14" s="8"/>
       <c r="Y14" s="16"/>
@@ -2868,9 +2882,9 @@
       <c r="Q15" s="16"/>
       <c r="R15" s="8"/>
       <c r="S15" s="16"/>
-      <c r="T15" s="47"/>
+      <c r="T15" s="35"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="8"/>
+      <c r="V15" s="35"/>
       <c r="W15" s="16"/>
       <c r="X15" s="8"/>
       <c r="Y15" s="16"/>
@@ -2917,9 +2931,9 @@
       <c r="Q16" s="16"/>
       <c r="R16" s="8"/>
       <c r="S16" s="16"/>
-      <c r="T16" s="47"/>
+      <c r="T16" s="35"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="8"/>
+      <c r="V16" s="35"/>
       <c r="W16" s="16"/>
       <c r="X16" s="8"/>
       <c r="Y16" s="16"/>
@@ -2966,9 +2980,9 @@
       <c r="Q17" s="16"/>
       <c r="R17" s="8"/>
       <c r="S17" s="16"/>
-      <c r="T17" s="47"/>
+      <c r="T17" s="35"/>
       <c r="U17" s="16"/>
-      <c r="V17" s="8"/>
+      <c r="V17" s="35"/>
       <c r="W17" s="16"/>
       <c r="X17" s="8"/>
       <c r="Y17" s="16"/>
@@ -3015,9 +3029,9 @@
       <c r="Q18" s="16"/>
       <c r="R18" s="8"/>
       <c r="S18" s="16"/>
-      <c r="T18" s="47"/>
+      <c r="T18" s="35"/>
       <c r="U18" s="16"/>
-      <c r="V18" s="8"/>
+      <c r="V18" s="35"/>
       <c r="W18" s="16"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="16"/>
@@ -3064,9 +3078,9 @@
       <c r="Q19" s="16"/>
       <c r="R19" s="8"/>
       <c r="S19" s="16"/>
-      <c r="T19" s="47"/>
+      <c r="T19" s="35"/>
       <c r="U19" s="16"/>
-      <c r="V19" s="8"/>
+      <c r="V19" s="35"/>
       <c r="W19" s="16"/>
       <c r="X19" s="8"/>
       <c r="Y19" s="16"/>
@@ -3113,9 +3127,9 @@
       <c r="Q20" s="16"/>
       <c r="R20" s="8"/>
       <c r="S20" s="16"/>
-      <c r="T20" s="47"/>
+      <c r="T20" s="35"/>
       <c r="U20" s="16"/>
-      <c r="V20" s="8"/>
+      <c r="V20" s="35"/>
       <c r="W20" s="16"/>
       <c r="X20" s="8"/>
       <c r="Y20" s="16"/>
@@ -3162,9 +3176,9 @@
       <c r="Q21" s="16"/>
       <c r="R21" s="8"/>
       <c r="S21" s="16"/>
-      <c r="T21" s="47"/>
+      <c r="T21" s="35"/>
       <c r="U21" s="16"/>
-      <c r="V21" s="8"/>
+      <c r="V21" s="35"/>
       <c r="W21" s="16"/>
       <c r="X21" s="8"/>
       <c r="Y21" s="16"/>
@@ -3211,9 +3225,9 @@
       <c r="Q22" s="16"/>
       <c r="R22" s="8"/>
       <c r="S22" s="16"/>
-      <c r="T22" s="47"/>
+      <c r="T22" s="35"/>
       <c r="U22" s="16"/>
-      <c r="V22" s="8"/>
+      <c r="V22" s="35"/>
       <c r="W22" s="16"/>
       <c r="X22" s="8"/>
       <c r="Y22" s="16"/>
@@ -3235,7 +3249,7 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
@@ -3243,7 +3257,7 @@
       </c>
       <c r="D23" s="25">
         <f t="shared" si="2"/>
-        <v>81.25</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
@@ -3278,9 +3292,11 @@
       <c r="S23" s="16">
         <v>1</v>
       </c>
-      <c r="T23" s="47"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="8"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="16">
+        <v>2</v>
+      </c>
+      <c r="V23" s="35"/>
       <c r="W23" s="16"/>
       <c r="X23" s="8"/>
       <c r="Y23" s="16"/>
@@ -3302,7 +3318,7 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
@@ -3329,9 +3345,11 @@
       <c r="S24" s="16">
         <v>1</v>
       </c>
-      <c r="T24" s="47"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="8"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="16">
+        <v>1</v>
+      </c>
+      <c r="V24" s="35"/>
       <c r="W24" s="16"/>
       <c r="X24" s="8"/>
       <c r="Y24" s="16"/>
@@ -3378,9 +3396,9 @@
       <c r="Q25" s="16"/>
       <c r="R25" s="8"/>
       <c r="S25" s="16"/>
-      <c r="T25" s="47"/>
+      <c r="T25" s="35"/>
       <c r="U25" s="16"/>
-      <c r="V25" s="8"/>
+      <c r="V25" s="35"/>
       <c r="W25" s="16"/>
       <c r="X25" s="8"/>
       <c r="Y25" s="16"/>
@@ -3402,7 +3420,7 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="1"/>
@@ -3410,7 +3428,7 @@
       </c>
       <c r="D26" s="25">
         <f t="shared" si="2"/>
-        <v>85.714285714285708</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="E26" s="16">
         <v>2</v>
@@ -3445,9 +3463,11 @@
       <c r="S26" s="16">
         <v>2</v>
       </c>
-      <c r="T26" s="47"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="8"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="16">
+        <v>1</v>
+      </c>
+      <c r="V26" s="35"/>
       <c r="W26" s="16"/>
       <c r="X26" s="8"/>
       <c r="Y26" s="16"/>
@@ -3518,7 +3538,7 @@
       </c>
       <c r="B28" s="20">
         <f>SUM(B4:B27)</f>
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C28" s="20">
         <f>SUM(C4:C27)</f>
@@ -3526,7 +3546,7 @@
       </c>
       <c r="D28" s="24">
         <f>((B28-C28)/B28)*100</f>
-        <v>83.620689655172413</v>
+        <v>85.496183206106863</v>
       </c>
       <c r="E28" s="21">
         <f>SUM(E4:E27)</f>
@@ -3594,7 +3614,7 @@
       </c>
       <c r="U28" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V28" s="22">
         <f t="shared" si="3"/>
@@ -3670,42 +3690,42 @@
         <f>C31/$C$28</f>
         <v>0.15789473684210525</v>
       </c>
-      <c r="E31" s="39"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="39">
-        <v>1</v>
-      </c>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="39">
-        <v>2</v>
-      </c>
-      <c r="R31" s="40"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="46">
+        <v>1</v>
+      </c>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="46">
+        <v>2</v>
+      </c>
+      <c r="R31" s="47"/>
       <c r="S31" s="48"/>
       <c r="T31" s="49"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="40"/>
-      <c r="W31" s="39"/>
-      <c r="X31" s="40"/>
-      <c r="Y31" s="39"/>
-      <c r="Z31" s="40"/>
-      <c r="AA31" s="39"/>
-      <c r="AB31" s="40"/>
-      <c r="AC31" s="39"/>
-      <c r="AD31" s="40"/>
-      <c r="AE31" s="39"/>
-      <c r="AF31" s="40"/>
-      <c r="AG31" s="39"/>
-      <c r="AH31" s="40"/>
-      <c r="AI31" s="39"/>
-      <c r="AJ31" s="40"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="46"/>
+      <c r="X31" s="47"/>
+      <c r="Y31" s="46"/>
+      <c r="Z31" s="47"/>
+      <c r="AA31" s="46"/>
+      <c r="AB31" s="47"/>
+      <c r="AC31" s="46"/>
+      <c r="AD31" s="47"/>
+      <c r="AE31" s="46"/>
+      <c r="AF31" s="47"/>
+      <c r="AG31" s="46"/>
+      <c r="AH31" s="47"/>
+      <c r="AI31" s="46"/>
+      <c r="AJ31" s="47"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
@@ -3720,40 +3740,40 @@
         <f t="shared" ref="D32:D42" si="5">C32/$C$28</f>
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="E32" s="41"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="41">
-        <v>1</v>
-      </c>
-      <c r="L32" s="42"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="51"/>
-      <c r="U32" s="41"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="41"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="41"/>
-      <c r="Z32" s="42"/>
-      <c r="AA32" s="41"/>
-      <c r="AB32" s="42"/>
-      <c r="AC32" s="41"/>
-      <c r="AD32" s="42"/>
-      <c r="AE32" s="41"/>
-      <c r="AF32" s="42"/>
-      <c r="AG32" s="41"/>
-      <c r="AH32" s="42"/>
-      <c r="AI32" s="41"/>
-      <c r="AJ32" s="42"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="40">
+        <v>1</v>
+      </c>
+      <c r="L32" s="41"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="40"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="40"/>
+      <c r="Z32" s="41"/>
+      <c r="AA32" s="40"/>
+      <c r="AB32" s="41"/>
+      <c r="AC32" s="40"/>
+      <c r="AD32" s="41"/>
+      <c r="AE32" s="40"/>
+      <c r="AF32" s="41"/>
+      <c r="AG32" s="40"/>
+      <c r="AH32" s="41"/>
+      <c r="AI32" s="40"/>
+      <c r="AJ32" s="41"/>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
@@ -3768,38 +3788,38 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E33" s="41"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="51"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="42"/>
-      <c r="W33" s="41"/>
-      <c r="X33" s="42"/>
-      <c r="Y33" s="41"/>
-      <c r="Z33" s="42"/>
-      <c r="AA33" s="41"/>
-      <c r="AB33" s="42"/>
-      <c r="AC33" s="41"/>
-      <c r="AD33" s="42"/>
-      <c r="AE33" s="41"/>
-      <c r="AF33" s="42"/>
-      <c r="AG33" s="41"/>
-      <c r="AH33" s="42"/>
-      <c r="AI33" s="41"/>
-      <c r="AJ33" s="42"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="42"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="42"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="41"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="41"/>
+      <c r="AA33" s="40"/>
+      <c r="AB33" s="41"/>
+      <c r="AC33" s="40"/>
+      <c r="AD33" s="41"/>
+      <c r="AE33" s="40"/>
+      <c r="AF33" s="41"/>
+      <c r="AG33" s="40"/>
+      <c r="AH33" s="41"/>
+      <c r="AI33" s="40"/>
+      <c r="AJ33" s="41"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" s="34" t="s">
@@ -3814,44 +3834,44 @@
         <f t="shared" si="5"/>
         <v>0.15789473684210525</v>
       </c>
-      <c r="E34" s="41">
-        <v>1</v>
-      </c>
-      <c r="F34" s="42"/>
-      <c r="G34" s="41">
-        <v>1</v>
-      </c>
-      <c r="H34" s="42"/>
-      <c r="I34" s="41">
-        <v>1</v>
-      </c>
-      <c r="J34" s="42"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="42"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="51"/>
-      <c r="U34" s="41"/>
-      <c r="V34" s="42"/>
-      <c r="W34" s="41"/>
-      <c r="X34" s="42"/>
-      <c r="Y34" s="41"/>
-      <c r="Z34" s="42"/>
-      <c r="AA34" s="41"/>
-      <c r="AB34" s="42"/>
-      <c r="AC34" s="41"/>
-      <c r="AD34" s="42"/>
-      <c r="AE34" s="41"/>
-      <c r="AF34" s="42"/>
-      <c r="AG34" s="41"/>
-      <c r="AH34" s="42"/>
-      <c r="AI34" s="41"/>
-      <c r="AJ34" s="42"/>
+      <c r="E34" s="40">
+        <v>1</v>
+      </c>
+      <c r="F34" s="41"/>
+      <c r="G34" s="40">
+        <v>1</v>
+      </c>
+      <c r="H34" s="41"/>
+      <c r="I34" s="40">
+        <v>1</v>
+      </c>
+      <c r="J34" s="41"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="41"/>
+      <c r="Y34" s="40"/>
+      <c r="Z34" s="41"/>
+      <c r="AA34" s="40"/>
+      <c r="AB34" s="41"/>
+      <c r="AC34" s="40"/>
+      <c r="AD34" s="41"/>
+      <c r="AE34" s="40"/>
+      <c r="AF34" s="41"/>
+      <c r="AG34" s="40"/>
+      <c r="AH34" s="41"/>
+      <c r="AI34" s="40"/>
+      <c r="AJ34" s="41"/>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" s="34" t="s">
@@ -3866,42 +3886,42 @@
         <f t="shared" si="5"/>
         <v>0.15789473684210525</v>
       </c>
-      <c r="E35" s="41"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="41">
-        <v>1</v>
-      </c>
-      <c r="H35" s="42"/>
-      <c r="I35" s="41">
-        <v>2</v>
-      </c>
-      <c r="J35" s="42"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="42"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="51"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="42"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="42"/>
-      <c r="Y35" s="41"/>
-      <c r="Z35" s="42"/>
-      <c r="AA35" s="41"/>
-      <c r="AB35" s="42"/>
-      <c r="AC35" s="41"/>
-      <c r="AD35" s="42"/>
-      <c r="AE35" s="41"/>
-      <c r="AF35" s="42"/>
-      <c r="AG35" s="41"/>
-      <c r="AH35" s="42"/>
-      <c r="AI35" s="41"/>
-      <c r="AJ35" s="42"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="40">
+        <v>1</v>
+      </c>
+      <c r="H35" s="41"/>
+      <c r="I35" s="40">
+        <v>2</v>
+      </c>
+      <c r="J35" s="41"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="42"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="42"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="41"/>
+      <c r="AA35" s="40"/>
+      <c r="AB35" s="41"/>
+      <c r="AC35" s="40"/>
+      <c r="AD35" s="41"/>
+      <c r="AE35" s="40"/>
+      <c r="AF35" s="41"/>
+      <c r="AG35" s="40"/>
+      <c r="AH35" s="41"/>
+      <c r="AI35" s="40"/>
+      <c r="AJ35" s="41"/>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" s="27" t="s">
@@ -3916,42 +3936,42 @@
         <f t="shared" si="5"/>
         <v>0.21052631578947367</v>
       </c>
-      <c r="E36" s="43"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="43">
-        <v>1</v>
-      </c>
-      <c r="H36" s="44"/>
-      <c r="I36" s="43">
+      <c r="E36" s="44"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="44">
+        <v>1</v>
+      </c>
+      <c r="H36" s="45"/>
+      <c r="I36" s="44">
         <v>3</v>
       </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="44"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="44"/>
-      <c r="S36" s="50"/>
-      <c r="T36" s="51"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="44"/>
-      <c r="W36" s="43"/>
-      <c r="X36" s="44"/>
-      <c r="Y36" s="43"/>
-      <c r="Z36" s="44"/>
-      <c r="AA36" s="43"/>
-      <c r="AB36" s="44"/>
-      <c r="AC36" s="43"/>
-      <c r="AD36" s="44"/>
-      <c r="AE36" s="43"/>
-      <c r="AF36" s="44"/>
-      <c r="AG36" s="43"/>
-      <c r="AH36" s="44"/>
-      <c r="AI36" s="43"/>
-      <c r="AJ36" s="44"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="45"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="42"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="45"/>
+      <c r="Y36" s="44"/>
+      <c r="Z36" s="45"/>
+      <c r="AA36" s="44"/>
+      <c r="AB36" s="45"/>
+      <c r="AC36" s="44"/>
+      <c r="AD36" s="45"/>
+      <c r="AE36" s="44"/>
+      <c r="AF36" s="45"/>
+      <c r="AG36" s="44"/>
+      <c r="AH36" s="45"/>
+      <c r="AI36" s="44"/>
+      <c r="AJ36" s="45"/>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" s="34" t="s">
@@ -3966,42 +3986,42 @@
         <f t="shared" si="5"/>
         <v>0.10526315789473684</v>
       </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="41">
-        <v>1</v>
-      </c>
-      <c r="H37" s="42"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="41">
-        <v>1</v>
-      </c>
-      <c r="N37" s="42"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="42"/>
-      <c r="S37" s="50"/>
-      <c r="T37" s="51"/>
-      <c r="U37" s="41"/>
-      <c r="V37" s="42"/>
-      <c r="W37" s="41"/>
-      <c r="X37" s="42"/>
-      <c r="Y37" s="41"/>
-      <c r="Z37" s="42"/>
-      <c r="AA37" s="41"/>
-      <c r="AB37" s="42"/>
-      <c r="AC37" s="41"/>
-      <c r="AD37" s="42"/>
-      <c r="AE37" s="41"/>
-      <c r="AF37" s="42"/>
-      <c r="AG37" s="41"/>
-      <c r="AH37" s="42"/>
-      <c r="AI37" s="41"/>
-      <c r="AJ37" s="42"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="40">
+        <v>1</v>
+      </c>
+      <c r="H37" s="41"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="40">
+        <v>1</v>
+      </c>
+      <c r="N37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
+      <c r="S37" s="42"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="42"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="40"/>
+      <c r="X37" s="41"/>
+      <c r="Y37" s="40"/>
+      <c r="Z37" s="41"/>
+      <c r="AA37" s="40"/>
+      <c r="AB37" s="41"/>
+      <c r="AC37" s="40"/>
+      <c r="AD37" s="41"/>
+      <c r="AE37" s="40"/>
+      <c r="AF37" s="41"/>
+      <c r="AG37" s="40"/>
+      <c r="AH37" s="41"/>
+      <c r="AI37" s="40"/>
+      <c r="AJ37" s="41"/>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
@@ -4016,40 +4036,40 @@
         <f t="shared" si="5"/>
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="E38" s="41"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="41">
-        <v>1</v>
-      </c>
-      <c r="L38" s="42"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="42"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
-      <c r="S38" s="50"/>
-      <c r="T38" s="51"/>
-      <c r="U38" s="41"/>
-      <c r="V38" s="42"/>
-      <c r="W38" s="41"/>
-      <c r="X38" s="42"/>
-      <c r="Y38" s="41"/>
-      <c r="Z38" s="42"/>
-      <c r="AA38" s="41"/>
-      <c r="AB38" s="42"/>
-      <c r="AC38" s="41"/>
-      <c r="AD38" s="42"/>
-      <c r="AE38" s="41"/>
-      <c r="AF38" s="42"/>
-      <c r="AG38" s="41"/>
-      <c r="AH38" s="42"/>
-      <c r="AI38" s="41"/>
-      <c r="AJ38" s="42"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="40">
+        <v>1</v>
+      </c>
+      <c r="L38" s="41"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="43"/>
+      <c r="W38" s="40"/>
+      <c r="X38" s="41"/>
+      <c r="Y38" s="40"/>
+      <c r="Z38" s="41"/>
+      <c r="AA38" s="40"/>
+      <c r="AB38" s="41"/>
+      <c r="AC38" s="40"/>
+      <c r="AD38" s="41"/>
+      <c r="AE38" s="40"/>
+      <c r="AF38" s="41"/>
+      <c r="AG38" s="40"/>
+      <c r="AH38" s="41"/>
+      <c r="AI38" s="40"/>
+      <c r="AJ38" s="41"/>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
@@ -4064,40 +4084,40 @@
         <f t="shared" si="5"/>
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="E39" s="41"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="41">
-        <v>1</v>
-      </c>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="42"/>
-      <c r="S39" s="50"/>
-      <c r="T39" s="51"/>
-      <c r="U39" s="41"/>
-      <c r="V39" s="42"/>
-      <c r="W39" s="41"/>
-      <c r="X39" s="42"/>
-      <c r="Y39" s="41"/>
-      <c r="Z39" s="42"/>
-      <c r="AA39" s="41"/>
-      <c r="AB39" s="42"/>
-      <c r="AC39" s="41"/>
-      <c r="AD39" s="42"/>
-      <c r="AE39" s="41"/>
-      <c r="AF39" s="42"/>
-      <c r="AG39" s="41"/>
-      <c r="AH39" s="42"/>
-      <c r="AI39" s="41"/>
-      <c r="AJ39" s="42"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="40">
+        <v>1</v>
+      </c>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="42"/>
+      <c r="T39" s="43"/>
+      <c r="U39" s="42"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="40"/>
+      <c r="Z39" s="41"/>
+      <c r="AA39" s="40"/>
+      <c r="AB39" s="41"/>
+      <c r="AC39" s="40"/>
+      <c r="AD39" s="41"/>
+      <c r="AE39" s="40"/>
+      <c r="AF39" s="41"/>
+      <c r="AG39" s="40"/>
+      <c r="AH39" s="41"/>
+      <c r="AI39" s="40"/>
+      <c r="AJ39" s="41"/>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
@@ -4112,40 +4132,40 @@
         <f t="shared" si="5"/>
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="E40" s="41"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="41">
-        <v>1</v>
-      </c>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="42"/>
-      <c r="S40" s="50"/>
-      <c r="T40" s="51"/>
-      <c r="U40" s="41"/>
-      <c r="V40" s="42"/>
-      <c r="W40" s="41"/>
-      <c r="X40" s="42"/>
-      <c r="Y40" s="41"/>
-      <c r="Z40" s="42"/>
-      <c r="AA40" s="41"/>
-      <c r="AB40" s="42"/>
-      <c r="AC40" s="41"/>
-      <c r="AD40" s="42"/>
-      <c r="AE40" s="41"/>
-      <c r="AF40" s="42"/>
-      <c r="AG40" s="41"/>
-      <c r="AH40" s="42"/>
-      <c r="AI40" s="41"/>
-      <c r="AJ40" s="42"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="40">
+        <v>1</v>
+      </c>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="43"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="43"/>
+      <c r="W40" s="40"/>
+      <c r="X40" s="41"/>
+      <c r="Y40" s="40"/>
+      <c r="Z40" s="41"/>
+      <c r="AA40" s="40"/>
+      <c r="AB40" s="41"/>
+      <c r="AC40" s="40"/>
+      <c r="AD40" s="41"/>
+      <c r="AE40" s="40"/>
+      <c r="AF40" s="41"/>
+      <c r="AG40" s="40"/>
+      <c r="AH40" s="41"/>
+      <c r="AI40" s="40"/>
+      <c r="AJ40" s="41"/>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
@@ -4158,38 +4178,38 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E41" s="41"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="42"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="42"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
-      <c r="S41" s="50"/>
-      <c r="T41" s="51"/>
-      <c r="U41" s="41"/>
-      <c r="V41" s="42"/>
-      <c r="W41" s="41"/>
-      <c r="X41" s="42"/>
-      <c r="Y41" s="41"/>
-      <c r="Z41" s="42"/>
-      <c r="AA41" s="41"/>
-      <c r="AB41" s="42"/>
-      <c r="AC41" s="41"/>
-      <c r="AD41" s="42"/>
-      <c r="AE41" s="41"/>
-      <c r="AF41" s="42"/>
-      <c r="AG41" s="41"/>
-      <c r="AH41" s="42"/>
-      <c r="AI41" s="41"/>
-      <c r="AJ41" s="42"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="41"/>
+      <c r="S41" s="42"/>
+      <c r="T41" s="43"/>
+      <c r="U41" s="42"/>
+      <c r="V41" s="43"/>
+      <c r="W41" s="40"/>
+      <c r="X41" s="41"/>
+      <c r="Y41" s="40"/>
+      <c r="Z41" s="41"/>
+      <c r="AA41" s="40"/>
+      <c r="AB41" s="41"/>
+      <c r="AC41" s="40"/>
+      <c r="AD41" s="41"/>
+      <c r="AE41" s="40"/>
+      <c r="AF41" s="41"/>
+      <c r="AG41" s="40"/>
+      <c r="AH41" s="41"/>
+      <c r="AI41" s="40"/>
+      <c r="AJ41" s="41"/>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
@@ -4202,38 +4222,38 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E42" s="45"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="46"/>
-      <c r="S42" s="52"/>
-      <c r="T42" s="53"/>
-      <c r="U42" s="45"/>
-      <c r="V42" s="46"/>
-      <c r="W42" s="45"/>
-      <c r="X42" s="46"/>
-      <c r="Y42" s="45"/>
-      <c r="Z42" s="46"/>
-      <c r="AA42" s="45"/>
-      <c r="AB42" s="46"/>
-      <c r="AC42" s="45"/>
-      <c r="AD42" s="46"/>
-      <c r="AE42" s="45"/>
-      <c r="AF42" s="46"/>
-      <c r="AG42" s="45"/>
-      <c r="AH42" s="46"/>
-      <c r="AI42" s="45"/>
-      <c r="AJ42" s="46"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="38"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="38"/>
+      <c r="V42" s="39"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="37"/>
+      <c r="Y42" s="36"/>
+      <c r="Z42" s="37"/>
+      <c r="AA42" s="36"/>
+      <c r="AB42" s="37"/>
+      <c r="AC42" s="36"/>
+      <c r="AD42" s="37"/>
+      <c r="AE42" s="36"/>
+      <c r="AF42" s="37"/>
+      <c r="AG42" s="36"/>
+      <c r="AH42" s="37"/>
+      <c r="AI42" s="36"/>
+      <c r="AJ42" s="37"/>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
@@ -4275,25 +4295,187 @@
     </row>
   </sheetData>
   <mergeCells count="224">
-    <mergeCell ref="AC42:AD42"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="AA42:AB42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="AC32:AD32"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="AA35:AB35"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="AA37:AB37"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="AC36:AD36"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AE37:AF37"/>
+    <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="AE38:AF38"/>
+    <mergeCell ref="AG38:AH38"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="AA38:AB38"/>
+    <mergeCell ref="AC39:AD39"/>
+    <mergeCell ref="AE39:AF39"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AI39:AJ39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="AA39:AB39"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="AC38:AD38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
     <mergeCell ref="AC40:AD40"/>
     <mergeCell ref="AE40:AF40"/>
     <mergeCell ref="AG40:AH40"/>
@@ -4318,187 +4500,25 @@
     <mergeCell ref="Y41:Z41"/>
     <mergeCell ref="AA41:AB41"/>
     <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="AC38:AD38"/>
-    <mergeCell ref="AE38:AF38"/>
-    <mergeCell ref="AG38:AH38"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="Y38:Z38"/>
-    <mergeCell ref="AA38:AB38"/>
-    <mergeCell ref="AC39:AD39"/>
-    <mergeCell ref="AE39:AF39"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AI39:AJ39"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="AA39:AB39"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="AC36:AD36"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="AE37:AF37"/>
-    <mergeCell ref="AG37:AH37"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="Y37:Z37"/>
-    <mergeCell ref="AA37:AB37"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="AA35:AB35"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="AA32:AB32"/>
-    <mergeCell ref="AC32:AD32"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="AC42:AD42"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="AA42:AB42"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D27">
     <cfRule type="colorScale" priority="3">

--- a/Mathematics/Analysis.xlsx
+++ b/Mathematics/Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandeep/Documents/StudyNotes/ICSE-X-MockTests/Mathematics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE091A6-5D8A-4843-86AF-ADD65C7FB545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8F32F3-8EBF-4F44-A63C-9F05ABE0BA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="38400" windowHeight="24000" xr2:uid="{B4465AD6-530F-2F46-9D03-3D425B2D33AA}"/>
   </bookViews>
@@ -848,7 +848,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1946,12 +1946,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D24" sqref="D24"/>
+      <selection pane="topRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.83203125" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="2" max="3" width="5.6640625" customWidth="1"/>
     <col min="4" max="4" width="6.33203125" customWidth="1"/>
     <col min="5" max="5" width="4.6640625" style="1" customWidth="1"/>
@@ -2001,9 +2001,13 @@
         <v>45417</v>
       </c>
       <c r="V1" s="51"/>
-      <c r="W1" s="50"/>
+      <c r="W1" s="50">
+        <v>45420</v>
+      </c>
       <c r="X1" s="51"/>
-      <c r="Y1" s="50"/>
+      <c r="Y1" s="50">
+        <v>45423</v>
+      </c>
       <c r="Z1" s="51"/>
       <c r="AA1" s="50"/>
       <c r="AB1" s="51"/>
@@ -2249,7 +2253,7 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" ref="B5:B27" si="0">SUM(E5,G5,I5,K5,M5,O5,Q5,S5,U5,W5,Y5,AA5,AC5,AE5,AG5,AI5)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5:C27" si="1">SUM(F5,H5,J5,L5,N5,P5,R5,T5,V5,X5,Z5,AB5,AD5,AF5,AH5,AJ5)</f>
@@ -2257,7 +2261,7 @@
       </c>
       <c r="D5" s="25">
         <f t="shared" ref="D5:D27" si="2">IF(B5=0,0,((B5-C5)/B5)*100)</f>
-        <v>91.666666666666657</v>
+        <v>92.307692307692307</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="8"/>
@@ -2291,7 +2295,9 @@
         <v>2</v>
       </c>
       <c r="V5" s="35"/>
-      <c r="W5" s="16"/>
+      <c r="W5" s="16">
+        <v>1</v>
+      </c>
       <c r="X5" s="8"/>
       <c r="Y5" s="16"/>
       <c r="Z5" s="8"/>
@@ -2432,15 +2438,15 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="25">
         <f t="shared" si="2"/>
-        <v>84.210526315789465</v>
+        <v>80.952380952380949</v>
       </c>
       <c r="E8" s="16">
         <v>4</v>
@@ -2484,8 +2490,12 @@
         <v>2</v>
       </c>
       <c r="V8" s="35"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="8"/>
+      <c r="W8" s="16">
+        <v>2</v>
+      </c>
+      <c r="X8" s="8">
+        <v>1</v>
+      </c>
       <c r="Y8" s="16"/>
       <c r="Z8" s="8"/>
       <c r="AA8" s="16"/>
@@ -2505,7 +2515,7 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="1"/>
@@ -2545,7 +2555,9 @@
         <v>1</v>
       </c>
       <c r="V9" s="35"/>
-      <c r="W9" s="16"/>
+      <c r="W9" s="16">
+        <v>2</v>
+      </c>
       <c r="X9" s="8"/>
       <c r="Y9" s="16"/>
       <c r="Z9" s="8"/>
@@ -2566,7 +2578,7 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="1"/>
@@ -2574,7 +2586,7 @@
       </c>
       <c r="D10" s="25">
         <f t="shared" si="2"/>
-        <v>83.333333333333343</v>
+        <v>85</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="8"/>
@@ -2614,7 +2626,9 @@
         <v>2</v>
       </c>
       <c r="V10" s="35"/>
-      <c r="W10" s="16"/>
+      <c r="W10" s="16">
+        <v>2</v>
+      </c>
       <c r="X10" s="8"/>
       <c r="Y10" s="16"/>
       <c r="Z10" s="8"/>
@@ -2635,15 +2649,15 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="25">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>77.272727272727266</v>
       </c>
       <c r="E11" s="16">
         <v>3</v>
@@ -2689,8 +2703,12 @@
         <v>3</v>
       </c>
       <c r="V11" s="35"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="8"/>
+      <c r="W11" s="16">
+        <v>2</v>
+      </c>
+      <c r="X11" s="8">
+        <v>1</v>
+      </c>
       <c r="Y11" s="16"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="16"/>
@@ -2704,13 +2722,13 @@
       <c r="AI11" s="16"/>
       <c r="AJ11" s="8"/>
     </row>
-    <row r="12" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="1"/>
@@ -2718,7 +2736,7 @@
       </c>
       <c r="D12" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="8"/>
@@ -2738,7 +2756,9 @@
       <c r="T12" s="35"/>
       <c r="U12" s="16"/>
       <c r="V12" s="35"/>
-      <c r="W12" s="16"/>
+      <c r="W12" s="16">
+        <v>2</v>
+      </c>
       <c r="X12" s="8"/>
       <c r="Y12" s="16"/>
       <c r="Z12" s="8"/>
@@ -3249,7 +3269,7 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
@@ -3257,7 +3277,7 @@
       </c>
       <c r="D23" s="25">
         <f t="shared" si="2"/>
-        <v>83.333333333333343</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
@@ -3297,7 +3317,9 @@
         <v>2</v>
       </c>
       <c r="V23" s="35"/>
-      <c r="W23" s="16"/>
+      <c r="W23" s="16">
+        <v>3</v>
+      </c>
       <c r="X23" s="8"/>
       <c r="Y23" s="16"/>
       <c r="Z23" s="8"/>
@@ -3420,7 +3442,7 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="1"/>
@@ -3428,7 +3450,7 @@
       </c>
       <c r="D26" s="25">
         <f t="shared" si="2"/>
-        <v>86.666666666666671</v>
+        <v>87.5</v>
       </c>
       <c r="E26" s="16">
         <v>2</v>
@@ -3468,7 +3490,9 @@
         <v>1</v>
       </c>
       <c r="V26" s="35"/>
-      <c r="W26" s="16"/>
+      <c r="W26" s="16">
+        <v>1</v>
+      </c>
       <c r="X26" s="8"/>
       <c r="Y26" s="16"/>
       <c r="Z26" s="8"/>
@@ -3538,15 +3562,15 @@
       </c>
       <c r="B28" s="20">
         <f>SUM(B4:B27)</f>
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C28" s="20">
         <f>SUM(C4:C27)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D28" s="24">
         <f>((B28-C28)/B28)*100</f>
-        <v>85.496183206106863</v>
+        <v>85.61643835616438</v>
       </c>
       <c r="E28" s="21">
         <f>SUM(E4:E27)</f>
@@ -3622,11 +3646,11 @@
       </c>
       <c r="W28" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X28" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y28" s="23">
         <f t="shared" si="3"/>
@@ -3684,11 +3708,11 @@
       <c r="B31" s="6"/>
       <c r="C31" s="6">
         <f>SUM(E31:AJ31)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" s="29">
         <f>C31/$C$28</f>
-        <v>0.15789473684210525</v>
+        <v>0.23809523809523808</v>
       </c>
       <c r="E31" s="46"/>
       <c r="F31" s="47"/>
@@ -3712,7 +3736,9 @@
       <c r="T31" s="49"/>
       <c r="U31" s="48"/>
       <c r="V31" s="49"/>
-      <c r="W31" s="46"/>
+      <c r="W31" s="46">
+        <v>2</v>
+      </c>
       <c r="X31" s="47"/>
       <c r="Y31" s="46"/>
       <c r="Z31" s="47"/>
@@ -3738,7 +3764,7 @@
       </c>
       <c r="D32" s="30">
         <f t="shared" ref="D32:D42" si="5">C32/$C$28</f>
-        <v>5.2631578947368418E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="E32" s="40"/>
       <c r="F32" s="41"/>
@@ -3832,7 +3858,7 @@
       </c>
       <c r="D34" s="30">
         <f t="shared" si="5"/>
-        <v>0.15789473684210525</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E34" s="40">
         <v>1</v>
@@ -3884,7 +3910,7 @@
       </c>
       <c r="D35" s="30">
         <f t="shared" si="5"/>
-        <v>0.15789473684210525</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E35" s="40"/>
       <c r="F35" s="41"/>
@@ -3934,7 +3960,7 @@
       </c>
       <c r="D36" s="31">
         <f t="shared" si="5"/>
-        <v>0.21052631578947367</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="E36" s="44"/>
       <c r="F36" s="45"/>
@@ -3984,7 +4010,7 @@
       </c>
       <c r="D37" s="30">
         <f t="shared" si="5"/>
-        <v>0.10526315789473684</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="E37" s="40"/>
       <c r="F37" s="41"/>
@@ -4034,7 +4060,7 @@
       </c>
       <c r="D38" s="30">
         <f t="shared" si="5"/>
-        <v>5.2631578947368418E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="E38" s="40"/>
       <c r="F38" s="41"/>
@@ -4082,7 +4108,7 @@
       </c>
       <c r="D39" s="30">
         <f t="shared" si="5"/>
-        <v>5.2631578947368418E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="E39" s="40"/>
       <c r="F39" s="41"/>
@@ -4130,7 +4156,7 @@
       </c>
       <c r="D40" s="30">
         <f t="shared" si="5"/>
-        <v>5.2631578947368418E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="E40" s="40"/>
       <c r="F40" s="41"/>
@@ -4404,9 +4430,6 @@
     <mergeCell ref="W35:X35"/>
     <mergeCell ref="Y35:Z35"/>
     <mergeCell ref="AA35:AB35"/>
-    <mergeCell ref="Y37:Z37"/>
-    <mergeCell ref="AA37:AB37"/>
-    <mergeCell ref="E36:F36"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="K36:L36"/>
@@ -4439,6 +4462,9 @@
     <mergeCell ref="AG37:AH37"/>
     <mergeCell ref="AI37:AJ37"/>
     <mergeCell ref="W37:X37"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="AA37:AB37"/>
+    <mergeCell ref="E36:F36"/>
     <mergeCell ref="AE38:AF38"/>
     <mergeCell ref="AG38:AH38"/>
     <mergeCell ref="AI38:AJ38"/>
@@ -4463,7 +4489,6 @@
     <mergeCell ref="AA39:AB39"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G40:H40"/>
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="K40:L40"/>
     <mergeCell ref="M40:N40"/>
@@ -4500,6 +4525,7 @@
     <mergeCell ref="Y41:Z41"/>
     <mergeCell ref="AA41:AB41"/>
     <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="G42:H42"/>
     <mergeCell ref="I42:J42"/>

--- a/Mathematics/Analysis.xlsx
+++ b/Mathematics/Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandeep/Documents/StudyNotes/ICSE-X-MockTests/Mathematics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8F32F3-8EBF-4F44-A63C-9F05ABE0BA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACFCB2C-9D3C-C44E-A181-F34283E946F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="38400" windowHeight="24000" xr2:uid="{B4465AD6-530F-2F46-9D03-3D425B2D33AA}"/>
   </bookViews>
@@ -677,16 +677,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -814,6 +814,20 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>(Sheet1!$F$28,Sheet1!$H$28,Sheet1!$J$28,Sheet1!$L$28,Sheet1!$N$28,Sheet1!$P$28,Sheet1!$R$28,Sheet1!$T$28,Sheet1!$V$28,Sheet1!$X$28,Sheet1!$Z$28,Sheet1!$AB$28,Sheet1!$AD$28,Sheet1!$AF$28,Sheet1!$AH$28,Sheet1!$AJ$28)</c:f>
@@ -851,19 +865,19 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -1609,13 +1623,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>42333</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>194733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>177799</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>33866</xdr:rowOff>
     </xdr:to>
@@ -1944,9 +1958,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FA7AF1-E407-A940-8659-99844D0177BA}">
   <dimension ref="A1:AM43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A10" sqref="A10"/>
+      <selection pane="topRight" activeCell="AI9" sqref="AI9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2006,16 +2020,24 @@
       </c>
       <c r="X1" s="51"/>
       <c r="Y1" s="50">
-        <v>45423</v>
+        <v>45424</v>
       </c>
       <c r="Z1" s="51"/>
-      <c r="AA1" s="50"/>
+      <c r="AA1" s="50">
+        <v>45431</v>
+      </c>
       <c r="AB1" s="51"/>
-      <c r="AC1" s="50"/>
+      <c r="AC1" s="50">
+        <v>45434</v>
+      </c>
       <c r="AD1" s="51"/>
-      <c r="AE1" s="50"/>
+      <c r="AE1" s="50">
+        <v>45437</v>
+      </c>
       <c r="AF1" s="51"/>
-      <c r="AG1" s="50"/>
+      <c r="AG1" s="50">
+        <v>45442</v>
+      </c>
       <c r="AH1" s="51"/>
       <c r="AI1" s="50"/>
       <c r="AJ1" s="51"/>
@@ -2253,15 +2275,15 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" ref="B5:B27" si="0">SUM(E5,G5,I5,K5,M5,O5,Q5,S5,U5,W5,Y5,AA5,AC5,AE5,AG5,AI5)</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5:C27" si="1">SUM(F5,H5,J5,L5,N5,P5,R5,T5,V5,X5,Z5,AB5,AD5,AF5,AH5,AJ5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="25">
         <f t="shared" ref="D5:D27" si="2">IF(B5=0,0,((B5-C5)/B5)*100)</f>
-        <v>92.307692307692307</v>
+        <v>89.473684210526315</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="8"/>
@@ -2299,17 +2321,27 @@
         <v>1</v>
       </c>
       <c r="X5" s="8"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="8"/>
+      <c r="Y5" s="16">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>1</v>
+      </c>
       <c r="AA5" s="16"/>
       <c r="AB5" s="8"/>
       <c r="AC5" s="16"/>
       <c r="AD5" s="8"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="16"/>
+      <c r="AE5" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="16">
+        <v>1</v>
+      </c>
       <c r="AH5" s="8"/>
-      <c r="AI5" s="16"/>
+      <c r="AI5" s="16">
+        <v>2</v>
+      </c>
       <c r="AJ5" s="8"/>
     </row>
     <row r="6" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
@@ -2355,7 +2387,7 @@
       <c r="AC6" s="16"/>
       <c r="AD6" s="8"/>
       <c r="AE6" s="16"/>
-      <c r="AF6" s="8"/>
+      <c r="AF6" s="35"/>
       <c r="AG6" s="16"/>
       <c r="AH6" s="8"/>
       <c r="AI6" s="16"/>
@@ -2367,7 +2399,7 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="1"/>
@@ -2375,7 +2407,7 @@
       </c>
       <c r="D7" s="25">
         <f t="shared" si="2"/>
-        <v>82.35294117647058</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
@@ -2419,15 +2451,21 @@
       <c r="V7" s="35"/>
       <c r="W7" s="16"/>
       <c r="X7" s="8"/>
-      <c r="Y7" s="16"/>
+      <c r="Y7" s="16">
+        <v>1</v>
+      </c>
       <c r="Z7" s="8"/>
       <c r="AA7" s="16"/>
       <c r="AB7" s="8"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="8"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="16"/>
+      <c r="AE7" s="16">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="16">
+        <v>1</v>
+      </c>
       <c r="AH7" s="8"/>
       <c r="AI7" s="16"/>
       <c r="AJ7" s="8"/>
@@ -2438,15 +2476,15 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" s="25">
         <f t="shared" si="2"/>
-        <v>80.952380952380949</v>
+        <v>84.848484848484844</v>
       </c>
       <c r="E8" s="16">
         <v>4</v>
@@ -2496,17 +2534,31 @@
       <c r="X8" s="8">
         <v>1</v>
       </c>
-      <c r="Y8" s="16"/>
+      <c r="Y8" s="16">
+        <v>3</v>
+      </c>
       <c r="Z8" s="8"/>
-      <c r="AA8" s="16"/>
+      <c r="AA8" s="16">
+        <v>1</v>
+      </c>
       <c r="AB8" s="8"/>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="16"/>
+      <c r="AC8" s="16">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="16">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="16">
+        <v>2</v>
+      </c>
       <c r="AH8" s="8"/>
-      <c r="AI8" s="16"/>
+      <c r="AI8" s="16">
+        <v>1</v>
+      </c>
       <c r="AJ8" s="8"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
@@ -2515,7 +2567,7 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="1"/>
@@ -2559,15 +2611,23 @@
         <v>2</v>
       </c>
       <c r="X9" s="8"/>
-      <c r="Y9" s="16"/>
+      <c r="Y9" s="16">
+        <v>1</v>
+      </c>
       <c r="Z9" s="8"/>
       <c r="AA9" s="16"/>
       <c r="AB9" s="8"/>
-      <c r="AC9" s="16"/>
+      <c r="AC9" s="16">
+        <v>2</v>
+      </c>
       <c r="AD9" s="8"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="16"/>
+      <c r="AE9" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="16">
+        <v>2</v>
+      </c>
       <c r="AH9" s="8"/>
       <c r="AI9" s="16"/>
       <c r="AJ9" s="8"/>
@@ -2578,7 +2638,7 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="1"/>
@@ -2586,7 +2646,7 @@
       </c>
       <c r="D10" s="25">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>89.65517241379311</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="8"/>
@@ -2630,15 +2690,25 @@
         <v>2</v>
       </c>
       <c r="X10" s="8"/>
-      <c r="Y10" s="16"/>
+      <c r="Y10" s="16">
+        <v>1</v>
+      </c>
       <c r="Z10" s="8"/>
-      <c r="AA10" s="16"/>
+      <c r="AA10" s="16">
+        <v>5</v>
+      </c>
       <c r="AB10" s="8"/>
-      <c r="AC10" s="16"/>
+      <c r="AC10" s="16">
+        <v>1</v>
+      </c>
       <c r="AD10" s="8"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="16"/>
+      <c r="AE10" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="16">
+        <v>1</v>
+      </c>
       <c r="AH10" s="8"/>
       <c r="AI10" s="16"/>
       <c r="AJ10" s="8"/>
@@ -2649,7 +2719,7 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="1"/>
@@ -2657,7 +2727,7 @@
       </c>
       <c r="D11" s="25">
         <f t="shared" si="2"/>
-        <v>77.272727272727266</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="E11" s="16">
         <v>3</v>
@@ -2709,15 +2779,25 @@
       <c r="X11" s="8">
         <v>1</v>
       </c>
-      <c r="Y11" s="16"/>
+      <c r="Y11" s="16">
+        <v>1</v>
+      </c>
       <c r="Z11" s="8"/>
-      <c r="AA11" s="16"/>
+      <c r="AA11" s="16">
+        <v>1</v>
+      </c>
       <c r="AB11" s="8"/>
-      <c r="AC11" s="16"/>
+      <c r="AC11" s="16">
+        <v>2</v>
+      </c>
       <c r="AD11" s="8"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="16"/>
+      <c r="AE11" s="16">
+        <v>2</v>
+      </c>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="16">
+        <v>2</v>
+      </c>
       <c r="AH11" s="8"/>
       <c r="AI11" s="16"/>
       <c r="AJ11" s="8"/>
@@ -2728,15 +2808,15 @@
       </c>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="25">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="8"/>
@@ -2760,26 +2840,40 @@
         <v>2</v>
       </c>
       <c r="X12" s="8"/>
-      <c r="Y12" s="16"/>
+      <c r="Y12" s="16">
+        <v>2</v>
+      </c>
       <c r="Z12" s="8"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="16"/>
+      <c r="AA12" s="16">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="16">
+        <v>2</v>
+      </c>
       <c r="AD12" s="8"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="8"/>
-      <c r="AG12" s="16"/>
-      <c r="AH12" s="8"/>
+      <c r="AE12" s="16">
+        <v>2</v>
+      </c>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="8">
+        <v>1</v>
+      </c>
       <c r="AI12" s="16"/>
       <c r="AJ12" s="8"/>
     </row>
-    <row r="13" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="1"/>
@@ -2787,7 +2881,7 @@
       </c>
       <c r="D13" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
@@ -2816,8 +2910,10 @@
       <c r="AC13" s="16"/>
       <c r="AD13" s="8"/>
       <c r="AE13" s="16"/>
-      <c r="AF13" s="8"/>
-      <c r="AG13" s="16"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="16">
+        <v>1</v>
+      </c>
       <c r="AH13" s="8"/>
       <c r="AI13" s="16"/>
       <c r="AJ13" s="8"/>
@@ -2865,7 +2961,7 @@
       <c r="AC14" s="16"/>
       <c r="AD14" s="8"/>
       <c r="AE14" s="16"/>
-      <c r="AF14" s="8"/>
+      <c r="AF14" s="35"/>
       <c r="AG14" s="16"/>
       <c r="AH14" s="8"/>
       <c r="AI14" s="16"/>
@@ -2914,7 +3010,7 @@
       <c r="AC15" s="16"/>
       <c r="AD15" s="8"/>
       <c r="AE15" s="16"/>
-      <c r="AF15" s="8"/>
+      <c r="AF15" s="35"/>
       <c r="AG15" s="16"/>
       <c r="AH15" s="8"/>
       <c r="AI15" s="16"/>
@@ -2963,7 +3059,7 @@
       <c r="AC16" s="16"/>
       <c r="AD16" s="8"/>
       <c r="AE16" s="16"/>
-      <c r="AF16" s="8"/>
+      <c r="AF16" s="35"/>
       <c r="AG16" s="16"/>
       <c r="AH16" s="8"/>
       <c r="AI16" s="16"/>
@@ -3012,7 +3108,7 @@
       <c r="AC17" s="16"/>
       <c r="AD17" s="8"/>
       <c r="AE17" s="16"/>
-      <c r="AF17" s="8"/>
+      <c r="AF17" s="35"/>
       <c r="AG17" s="16"/>
       <c r="AH17" s="8"/>
       <c r="AI17" s="16"/>
@@ -3061,7 +3157,7 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="8"/>
       <c r="AE18" s="16"/>
-      <c r="AF18" s="8"/>
+      <c r="AF18" s="35"/>
       <c r="AG18" s="16"/>
       <c r="AH18" s="8"/>
       <c r="AI18" s="16"/>
@@ -3110,7 +3206,7 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="8"/>
       <c r="AE19" s="16"/>
-      <c r="AF19" s="8"/>
+      <c r="AF19" s="35"/>
       <c r="AG19" s="16"/>
       <c r="AH19" s="8"/>
       <c r="AI19" s="16"/>
@@ -3159,7 +3255,7 @@
       <c r="AC20" s="16"/>
       <c r="AD20" s="8"/>
       <c r="AE20" s="16"/>
-      <c r="AF20" s="8"/>
+      <c r="AF20" s="35"/>
       <c r="AG20" s="16"/>
       <c r="AH20" s="8"/>
       <c r="AI20" s="16"/>
@@ -3208,19 +3304,19 @@
       <c r="AC21" s="16"/>
       <c r="AD21" s="8"/>
       <c r="AE21" s="16"/>
-      <c r="AF21" s="8"/>
+      <c r="AF21" s="35"/>
       <c r="AG21" s="16"/>
       <c r="AH21" s="8"/>
       <c r="AI21" s="16"/>
       <c r="AJ21" s="8"/>
     </row>
-    <row r="22" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="1"/>
@@ -3228,7 +3324,7 @@
       </c>
       <c r="D22" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="8"/>
@@ -3254,11 +3350,17 @@
       <c r="Z22" s="8"/>
       <c r="AA22" s="16"/>
       <c r="AB22" s="8"/>
-      <c r="AC22" s="16"/>
+      <c r="AC22" s="16">
+        <v>1</v>
+      </c>
       <c r="AD22" s="8"/>
-      <c r="AE22" s="16"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="16"/>
+      <c r="AE22" s="16">
+        <v>2</v>
+      </c>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="16">
+        <v>2</v>
+      </c>
       <c r="AH22" s="8"/>
       <c r="AI22" s="16"/>
       <c r="AJ22" s="8"/>
@@ -3269,7 +3371,7 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
@@ -3277,7 +3379,7 @@
       </c>
       <c r="D23" s="25">
         <f t="shared" si="2"/>
-        <v>85.714285714285708</v>
+        <v>90</v>
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
@@ -3321,15 +3423,25 @@
         <v>3</v>
       </c>
       <c r="X23" s="8"/>
-      <c r="Y23" s="16"/>
+      <c r="Y23" s="16">
+        <v>2</v>
+      </c>
       <c r="Z23" s="8"/>
-      <c r="AA23" s="16"/>
+      <c r="AA23" s="16">
+        <v>2</v>
+      </c>
       <c r="AB23" s="8"/>
-      <c r="AC23" s="16"/>
+      <c r="AC23" s="16">
+        <v>2</v>
+      </c>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="16"/>
-      <c r="AF23" s="8"/>
-      <c r="AG23" s="16"/>
+      <c r="AE23" s="16">
+        <v>2</v>
+      </c>
+      <c r="AF23" s="35"/>
+      <c r="AG23" s="16">
+        <v>1</v>
+      </c>
       <c r="AH23" s="8"/>
       <c r="AI23" s="16"/>
       <c r="AJ23" s="8"/>
@@ -3340,7 +3452,7 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
@@ -3374,14 +3486,22 @@
       <c r="V24" s="35"/>
       <c r="W24" s="16"/>
       <c r="X24" s="8"/>
-      <c r="Y24" s="16"/>
+      <c r="Y24" s="16">
+        <v>1</v>
+      </c>
       <c r="Z24" s="8"/>
-      <c r="AA24" s="16"/>
+      <c r="AA24" s="16">
+        <v>1</v>
+      </c>
       <c r="AB24" s="8"/>
-      <c r="AC24" s="16"/>
+      <c r="AC24" s="16">
+        <v>1</v>
+      </c>
       <c r="AD24" s="8"/>
-      <c r="AE24" s="16"/>
-      <c r="AF24" s="8"/>
+      <c r="AE24" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="35"/>
       <c r="AG24" s="16"/>
       <c r="AH24" s="8"/>
       <c r="AI24" s="16"/>
@@ -3430,7 +3550,7 @@
       <c r="AC25" s="16"/>
       <c r="AD25" s="8"/>
       <c r="AE25" s="16"/>
-      <c r="AF25" s="8"/>
+      <c r="AF25" s="35"/>
       <c r="AG25" s="16"/>
       <c r="AH25" s="8"/>
       <c r="AI25" s="16"/>
@@ -3442,7 +3562,7 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="1"/>
@@ -3450,7 +3570,7 @@
       </c>
       <c r="D26" s="25">
         <f t="shared" si="2"/>
-        <v>87.5</v>
+        <v>90.476190476190482</v>
       </c>
       <c r="E26" s="16">
         <v>2</v>
@@ -3494,15 +3614,23 @@
         <v>1</v>
       </c>
       <c r="X26" s="8"/>
-      <c r="Y26" s="16"/>
+      <c r="Y26" s="16">
+        <v>1</v>
+      </c>
       <c r="Z26" s="8"/>
-      <c r="AA26" s="16"/>
+      <c r="AA26" s="16">
+        <v>2</v>
+      </c>
       <c r="AB26" s="8"/>
-      <c r="AC26" s="16"/>
+      <c r="AC26" s="16">
+        <v>1</v>
+      </c>
       <c r="AD26" s="8"/>
       <c r="AE26" s="16"/>
-      <c r="AF26" s="8"/>
-      <c r="AG26" s="16"/>
+      <c r="AF26" s="35"/>
+      <c r="AG26" s="16">
+        <v>1</v>
+      </c>
       <c r="AH26" s="8"/>
       <c r="AI26" s="16"/>
       <c r="AJ26" s="8"/>
@@ -3562,15 +3690,15 @@
       </c>
       <c r="B28" s="20">
         <f>SUM(B4:B27)</f>
-        <v>146</v>
+        <v>225</v>
       </c>
       <c r="C28" s="20">
         <f>SUM(C4:C27)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D28" s="24">
         <f>((B28-C28)/B28)*100</f>
-        <v>85.61643835616438</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="E28" s="21">
         <f>SUM(E4:E27)</f>
@@ -3654,31 +3782,31 @@
       </c>
       <c r="Y28" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z28" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA28" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB28" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC28" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD28" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE28" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AF28" s="22">
         <f t="shared" si="3"/>
@@ -3686,15 +3814,15 @@
       </c>
       <c r="AG28" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH28" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI28" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ28" s="22">
         <f t="shared" si="3"/>
@@ -3708,50 +3836,52 @@
       <c r="B31" s="6"/>
       <c r="C31" s="6">
         <f>SUM(E31:AJ31)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D31" s="29">
         <f>C31/$C$28</f>
-        <v>0.23809523809523808</v>
-      </c>
-      <c r="E31" s="46"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="46">
-        <v>1</v>
-      </c>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="46">
-        <v>2</v>
-      </c>
-      <c r="R31" s="47"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="49"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="49"/>
-      <c r="W31" s="46">
-        <v>2</v>
-      </c>
-      <c r="X31" s="47"/>
-      <c r="Y31" s="46"/>
-      <c r="Z31" s="47"/>
-      <c r="AA31" s="46"/>
-      <c r="AB31" s="47"/>
-      <c r="AC31" s="46"/>
-      <c r="AD31" s="47"/>
+        <v>0.24</v>
+      </c>
+      <c r="E31" s="48"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="48">
+        <v>1</v>
+      </c>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="48">
+        <v>2</v>
+      </c>
+      <c r="R31" s="49"/>
+      <c r="S31" s="46"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="46"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="48">
+        <v>2</v>
+      </c>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="48"/>
+      <c r="Z31" s="49"/>
+      <c r="AA31" s="48">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="49"/>
+      <c r="AC31" s="48"/>
+      <c r="AD31" s="49"/>
       <c r="AE31" s="46"/>
       <c r="AF31" s="47"/>
-      <c r="AG31" s="46"/>
-      <c r="AH31" s="47"/>
-      <c r="AI31" s="46"/>
-      <c r="AJ31" s="47"/>
+      <c r="AG31" s="48"/>
+      <c r="AH31" s="49"/>
+      <c r="AI31" s="48"/>
+      <c r="AJ31" s="49"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
@@ -3764,7 +3894,7 @@
       </c>
       <c r="D32" s="30">
         <f t="shared" ref="D32:D42" si="5">C32/$C$28</f>
-        <v>4.7619047619047616E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E32" s="40"/>
       <c r="F32" s="41"/>
@@ -3794,8 +3924,8 @@
       <c r="AB32" s="41"/>
       <c r="AC32" s="40"/>
       <c r="AD32" s="41"/>
-      <c r="AE32" s="40"/>
-      <c r="AF32" s="41"/>
+      <c r="AE32" s="42"/>
+      <c r="AF32" s="43"/>
       <c r="AG32" s="40"/>
       <c r="AH32" s="41"/>
       <c r="AI32" s="40"/>
@@ -3840,8 +3970,8 @@
       <c r="AB33" s="41"/>
       <c r="AC33" s="40"/>
       <c r="AD33" s="41"/>
-      <c r="AE33" s="40"/>
-      <c r="AF33" s="41"/>
+      <c r="AE33" s="42"/>
+      <c r="AF33" s="43"/>
       <c r="AG33" s="40"/>
       <c r="AH33" s="41"/>
       <c r="AI33" s="40"/>
@@ -3854,11 +3984,11 @@
       <c r="B34" s="2"/>
       <c r="C34" s="2">
         <f>SUM(E34:AJ34)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" s="30">
         <f t="shared" si="5"/>
-        <v>0.14285714285714285</v>
+        <v>0.16</v>
       </c>
       <c r="E34" s="40">
         <v>1</v>
@@ -3886,14 +4016,16 @@
       <c r="V34" s="43"/>
       <c r="W34" s="40"/>
       <c r="X34" s="41"/>
-      <c r="Y34" s="40"/>
+      <c r="Y34" s="40">
+        <v>1</v>
+      </c>
       <c r="Z34" s="41"/>
       <c r="AA34" s="40"/>
       <c r="AB34" s="41"/>
       <c r="AC34" s="40"/>
       <c r="AD34" s="41"/>
-      <c r="AE34" s="40"/>
-      <c r="AF34" s="41"/>
+      <c r="AE34" s="42"/>
+      <c r="AF34" s="43"/>
       <c r="AG34" s="40"/>
       <c r="AH34" s="41"/>
       <c r="AI34" s="40"/>
@@ -3906,11 +4038,11 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" s="30">
         <f t="shared" si="5"/>
-        <v>0.14285714285714285</v>
+        <v>0.16</v>
       </c>
       <c r="E35" s="40"/>
       <c r="F35" s="41"/>
@@ -3940,10 +4072,12 @@
       <c r="Z35" s="41"/>
       <c r="AA35" s="40"/>
       <c r="AB35" s="41"/>
-      <c r="AC35" s="40"/>
+      <c r="AC35" s="40">
+        <v>1</v>
+      </c>
       <c r="AD35" s="41"/>
-      <c r="AE35" s="40"/>
-      <c r="AF35" s="41"/>
+      <c r="AE35" s="42"/>
+      <c r="AF35" s="43"/>
       <c r="AG35" s="40"/>
       <c r="AH35" s="41"/>
       <c r="AI35" s="40"/>
@@ -3956,11 +4090,11 @@
       <c r="B36" s="28"/>
       <c r="C36" s="28">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" s="31">
         <f t="shared" si="5"/>
-        <v>0.19047619047619047</v>
+        <v>0.2</v>
       </c>
       <c r="E36" s="44"/>
       <c r="F36" s="45"/>
@@ -3992,9 +4126,11 @@
       <c r="AB36" s="45"/>
       <c r="AC36" s="44"/>
       <c r="AD36" s="45"/>
-      <c r="AE36" s="44"/>
-      <c r="AF36" s="45"/>
-      <c r="AG36" s="44"/>
+      <c r="AE36" s="42"/>
+      <c r="AF36" s="43"/>
+      <c r="AG36" s="44">
+        <v>1</v>
+      </c>
       <c r="AH36" s="45"/>
       <c r="AI36" s="44"/>
       <c r="AJ36" s="45"/>
@@ -4010,7 +4146,7 @@
       </c>
       <c r="D37" s="30">
         <f t="shared" si="5"/>
-        <v>9.5238095238095233E-2</v>
+        <v>0.08</v>
       </c>
       <c r="E37" s="40"/>
       <c r="F37" s="41"/>
@@ -4042,8 +4178,8 @@
       <c r="AB37" s="41"/>
       <c r="AC37" s="40"/>
       <c r="AD37" s="41"/>
-      <c r="AE37" s="40"/>
-      <c r="AF37" s="41"/>
+      <c r="AE37" s="42"/>
+      <c r="AF37" s="43"/>
       <c r="AG37" s="40"/>
       <c r="AH37" s="41"/>
       <c r="AI37" s="40"/>
@@ -4060,7 +4196,7 @@
       </c>
       <c r="D38" s="30">
         <f t="shared" si="5"/>
-        <v>4.7619047619047616E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E38" s="40"/>
       <c r="F38" s="41"/>
@@ -4090,8 +4226,8 @@
       <c r="AB38" s="41"/>
       <c r="AC38" s="40"/>
       <c r="AD38" s="41"/>
-      <c r="AE38" s="40"/>
-      <c r="AF38" s="41"/>
+      <c r="AE38" s="42"/>
+      <c r="AF38" s="43"/>
       <c r="AG38" s="40"/>
       <c r="AH38" s="41"/>
       <c r="AI38" s="40"/>
@@ -4108,7 +4244,7 @@
       </c>
       <c r="D39" s="30">
         <f t="shared" si="5"/>
-        <v>4.7619047619047616E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E39" s="40"/>
       <c r="F39" s="41"/>
@@ -4138,8 +4274,8 @@
       <c r="AB39" s="41"/>
       <c r="AC39" s="40"/>
       <c r="AD39" s="41"/>
-      <c r="AE39" s="40"/>
-      <c r="AF39" s="41"/>
+      <c r="AE39" s="42"/>
+      <c r="AF39" s="43"/>
       <c r="AG39" s="40"/>
       <c r="AH39" s="41"/>
       <c r="AI39" s="40"/>
@@ -4156,7 +4292,7 @@
       </c>
       <c r="D40" s="30">
         <f t="shared" si="5"/>
-        <v>4.7619047619047616E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E40" s="40"/>
       <c r="F40" s="41"/>
@@ -4186,8 +4322,8 @@
       <c r="AB40" s="41"/>
       <c r="AC40" s="40"/>
       <c r="AD40" s="41"/>
-      <c r="AE40" s="40"/>
-      <c r="AF40" s="41"/>
+      <c r="AE40" s="42"/>
+      <c r="AF40" s="43"/>
       <c r="AG40" s="40"/>
       <c r="AH40" s="41"/>
       <c r="AI40" s="40"/>
@@ -4230,8 +4366,8 @@
       <c r="AB41" s="41"/>
       <c r="AC41" s="40"/>
       <c r="AD41" s="41"/>
-      <c r="AE41" s="40"/>
-      <c r="AF41" s="41"/>
+      <c r="AE41" s="42"/>
+      <c r="AF41" s="43"/>
       <c r="AG41" s="40"/>
       <c r="AH41" s="41"/>
       <c r="AI41" s="40"/>
@@ -4274,8 +4410,8 @@
       <c r="AB42" s="37"/>
       <c r="AC42" s="36"/>
       <c r="AD42" s="37"/>
-      <c r="AE42" s="36"/>
-      <c r="AF42" s="37"/>
+      <c r="AE42" s="38"/>
+      <c r="AF42" s="39"/>
       <c r="AG42" s="36"/>
       <c r="AH42" s="37"/>
       <c r="AI42" s="36"/>

--- a/Mathematics/Analysis.xlsx
+++ b/Mathematics/Analysis.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandeep/Documents/StudyNotes/ICSE-X-MockTests/Mathematics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACFCB2C-9D3C-C44E-A181-F34283E946F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C36722-131A-7744-AC81-1593A2D89D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="38400" windowHeight="24000" xr2:uid="{B4465AD6-530F-2F46-9D03-3D425B2D33AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$54:$AA$54</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
   <si>
     <t>GST</t>
   </si>
@@ -647,16 +650,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -677,28 +692,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -796,24 +799,23 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -830,10 +832,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$F$28,Sheet1!$H$28,Sheet1!$J$28,Sheet1!$L$28,Sheet1!$N$28,Sheet1!$P$28,Sheet1!$R$28,Sheet1!$T$28,Sheet1!$V$28,Sheet1!$X$28,Sheet1!$Z$28,Sheet1!$AB$28,Sheet1!$AD$28,Sheet1!$AF$28,Sheet1!$AH$28,Sheet1!$AJ$28)</c:f>
+              <c:f>Sheet1!$E$54:$AA$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -882,10 +884,30 @@
                 <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7C5E-3940-86A6-97D692D04E39}"/>
@@ -900,10 +922,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1392428080"/>
         <c:axId val="1391704272"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="1392428080"/>
         <c:scaling>
@@ -1623,13 +1645,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>32288</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>194733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>344714</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>33866</xdr:rowOff>
     </xdr:to>
@@ -1956,11 +1978,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FA7AF1-E407-A940-8659-99844D0177BA}">
-  <dimension ref="A1:AM43"/>
+  <dimension ref="A1:AX55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI9" sqref="AI9"/>
+      <selection pane="topRight" activeCell="AJ58" sqref="AJ58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1971,148 +1993,193 @@
     <col min="5" max="5" width="4.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="5.1640625" style="1" customWidth="1"/>
     <col min="7" max="36" width="4.6640625" style="1" customWidth="1"/>
-    <col min="37" max="39" width="5.1640625" style="1" customWidth="1"/>
+    <col min="37" max="39" width="5" style="1" customWidth="1"/>
+    <col min="40" max="50" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="50">
+      <c r="E1" s="36">
         <v>45377</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="50">
+      <c r="F1" s="37"/>
+      <c r="G1" s="36">
         <v>45381</v>
       </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="50">
+      <c r="H1" s="37"/>
+      <c r="I1" s="36">
         <v>45388</v>
       </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="50">
+      <c r="J1" s="37"/>
+      <c r="K1" s="36">
         <v>45395</v>
       </c>
-      <c r="L1" s="51"/>
-      <c r="M1" s="50">
+      <c r="L1" s="37"/>
+      <c r="M1" s="36">
         <v>45400</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="50">
+      <c r="N1" s="37"/>
+      <c r="O1" s="36">
         <v>45406</v>
       </c>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="50">
+      <c r="P1" s="37"/>
+      <c r="Q1" s="36">
         <v>45410</v>
       </c>
-      <c r="R1" s="51"/>
-      <c r="S1" s="50">
+      <c r="R1" s="37"/>
+      <c r="S1" s="36">
         <v>45413</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="50">
+      <c r="T1" s="37"/>
+      <c r="U1" s="36">
         <v>45417</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="50">
+      <c r="V1" s="37"/>
+      <c r="W1" s="36">
         <v>45420</v>
       </c>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="50">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="36">
         <v>45424</v>
       </c>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="50">
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="36">
         <v>45431</v>
       </c>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="50">
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="36">
         <v>45434</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="50">
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="36">
         <v>45437</v>
       </c>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="50">
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="36">
         <v>45442</v>
       </c>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="51"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="36">
+        <v>45445</v>
+      </c>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="37"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="52">
-        <v>1</v>
-      </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="52">
-        <v>2</v>
-      </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="52">
+      <c r="E2" s="38">
+        <v>1</v>
+      </c>
+      <c r="F2" s="39"/>
+      <c r="G2" s="38">
+        <v>2</v>
+      </c>
+      <c r="H2" s="39"/>
+      <c r="I2" s="38">
         <v>3</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="52">
+      <c r="J2" s="39"/>
+      <c r="K2" s="38">
         <v>4</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="52">
+      <c r="L2" s="39"/>
+      <c r="M2" s="38">
         <v>5</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="52">
+      <c r="N2" s="39"/>
+      <c r="O2" s="38">
         <v>6</v>
       </c>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="52">
+      <c r="P2" s="39"/>
+      <c r="Q2" s="38">
         <v>7</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="52">
+      <c r="R2" s="39"/>
+      <c r="S2" s="38">
         <v>8</v>
       </c>
-      <c r="T2" s="53"/>
-      <c r="U2" s="52">
+      <c r="T2" s="39"/>
+      <c r="U2" s="38">
         <v>9</v>
       </c>
-      <c r="V2" s="53"/>
-      <c r="W2" s="52">
+      <c r="V2" s="39"/>
+      <c r="W2" s="38">
         <v>10</v>
       </c>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="52">
+      <c r="X2" s="39"/>
+      <c r="Y2" s="38">
         <v>11</v>
       </c>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="52">
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="38">
         <v>12</v>
       </c>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="52">
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="38">
         <v>13</v>
       </c>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="52">
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="38">
         <v>14</v>
       </c>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="52">
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="38">
         <v>15</v>
       </c>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="52">
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="38">
         <v>16</v>
       </c>
-      <c r="AJ2" s="53"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="38">
+        <v>17</v>
+      </c>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="38">
+        <v>18</v>
+      </c>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="38">
+        <v>19</v>
+      </c>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="38">
+        <v>20</v>
+      </c>
+      <c r="AR2" s="39"/>
+      <c r="AS2" s="38">
+        <v>21</v>
+      </c>
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="38">
+        <v>22</v>
+      </c>
+      <c r="AV2" s="39"/>
+      <c r="AW2" s="38">
+        <v>23</v>
+      </c>
+      <c r="AX2" s="39"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="10" t="s">
         <v>25</v>
@@ -2219,8 +2286,50 @@
       <c r="AJ3" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="AK3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX3" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -2268,21 +2377,35 @@
       <c r="AH4" s="12"/>
       <c r="AI4" s="18"/>
       <c r="AJ4" s="12"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="18"/>
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="18"/>
+      <c r="AR4" s="12"/>
+      <c r="AS4" s="18"/>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="18"/>
+      <c r="AV4" s="12"/>
+      <c r="AW4" s="18"/>
+      <c r="AX4" s="12"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" ref="B5:B27" si="0">SUM(E5,G5,I5,K5,M5,O5,Q5,S5,U5,W5,Y5,AA5,AC5,AE5,AG5,AI5)</f>
+        <f>SUM(E5,G5,I5,K5,M5,O5,Q5,S5,U5,W5,Y5,AA5,AC5,AE5,AG5,AI5,AK5,AM5,AO5,AQ5,AS5,AU5,AW5)</f>
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C27" si="1">SUM(F5,H5,J5,L5,N5,P5,R5,T5,V5,X5,Z5,AB5,AD5,AF5,AH5,AJ5)</f>
+        <f>SUM(F5,H5,J5,L5,N5,P5,R5,T5,V5,X5,Z5,AB5,AD5,AF5,AH5,AJ5,AL5,AN5,AP5,AR5,AT5,AV5,AX5)</f>
         <v>2</v>
       </c>
       <c r="D5" s="25">
-        <f t="shared" ref="D5:D27" si="2">IF(B5=0,0,((B5-C5)/B5)*100)</f>
+        <f t="shared" ref="D5:D27" si="0">IF(B5=0,0,((B5-C5)/B5)*100)</f>
         <v>89.473684210526315</v>
       </c>
       <c r="E5" s="16"/>
@@ -2342,22 +2465,36 @@
       <c r="AI5" s="16">
         <v>2</v>
       </c>
-      <c r="AJ5" s="8"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="16"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="16"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="16"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="16"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="16"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="16"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="16"/>
+      <c r="AX5" s="8"/>
     </row>
-    <row r="6" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2">
+        <f t="shared" ref="B6:B26" si="1">SUM(E6,G6,I6,K6,M6,O6,Q6,S6,U6,W6,Y6,AA6,AC6,AE6,AG6,AI6,AK6,AM6,AO6,AQ6,AS6,AU6,AW6)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" ref="C6:C26" si="2">SUM(F6,H6,J6,L6,N6,P6,R6,T6,V6,X6,Z6,AB6,AD6,AF6,AH6,AJ6,AL6,AN6,AP6,AR6,AT6,AV6,AX6)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="25">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E6" s="16"/>
@@ -2391,22 +2528,36 @@
       <c r="AG6" s="16"/>
       <c r="AH6" s="8"/>
       <c r="AI6" s="16"/>
-      <c r="AJ6" s="8"/>
+      <c r="AJ6" s="35"/>
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="16"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="16"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="16"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="16"/>
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="16"/>
+      <c r="AX6" s="8"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D7" s="25">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D7" s="25">
-        <f t="shared" si="2"/>
         <v>85.714285714285708</v>
       </c>
       <c r="E7" s="16"/>
@@ -2468,23 +2619,37 @@
       </c>
       <c r="AH7" s="8"/>
       <c r="AI7" s="16"/>
-      <c r="AJ7" s="8"/>
+      <c r="AJ7" s="35"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="16"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="16"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="16"/>
+      <c r="AT7" s="8"/>
+      <c r="AU7" s="16"/>
+      <c r="AV7" s="8"/>
+      <c r="AW7" s="16"/>
+      <c r="AX7" s="8"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D8" s="25">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D8" s="25">
-        <f t="shared" si="2"/>
-        <v>84.848484848484844</v>
+        <v>85.294117647058826</v>
       </c>
       <c r="E8" s="16">
         <v>4</v>
@@ -2557,24 +2722,38 @@
       </c>
       <c r="AH8" s="8"/>
       <c r="AI8" s="16">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="AJ8" s="35"/>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="16"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="16"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="16"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="16"/>
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="16"/>
+      <c r="AV8" s="8"/>
+      <c r="AW8" s="16"/>
+      <c r="AX8" s="8"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="25">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="25">
-        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E9" s="16"/>
@@ -2629,24 +2808,40 @@
         <v>2</v>
       </c>
       <c r="AH9" s="8"/>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="8"/>
+      <c r="AI9" s="16">
+        <v>3</v>
+      </c>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="16"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="16"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="8"/>
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="8"/>
+      <c r="AW9" s="16"/>
+      <c r="AX9" s="8"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D10" s="25">
         <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D10" s="25">
-        <f t="shared" si="2"/>
-        <v>89.65517241379311</v>
+        <v>90.625</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="8"/>
@@ -2710,24 +2905,40 @@
         <v>1</v>
       </c>
       <c r="AH10" s="8"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="8"/>
+      <c r="AI10" s="16">
+        <v>3</v>
+      </c>
+      <c r="AJ10" s="35"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="16"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="16"/>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="16"/>
+      <c r="AR10" s="8"/>
+      <c r="AS10" s="16"/>
+      <c r="AT10" s="8"/>
+      <c r="AU10" s="16"/>
+      <c r="AV10" s="8"/>
+      <c r="AW10" s="16"/>
+      <c r="AX10" s="8"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D11" s="25">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D11" s="25">
-        <f t="shared" si="2"/>
-        <v>83.333333333333343</v>
+        <v>84.375</v>
       </c>
       <c r="E11" s="16">
         <v>3</v>
@@ -2799,24 +3010,40 @@
         <v>2</v>
       </c>
       <c r="AH11" s="8"/>
-      <c r="AI11" s="16"/>
-      <c r="AJ11" s="8"/>
+      <c r="AI11" s="16">
+        <v>2</v>
+      </c>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="16"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="16"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="16"/>
+      <c r="AP11" s="8"/>
+      <c r="AQ11" s="16"/>
+      <c r="AR11" s="8"/>
+      <c r="AS11" s="16"/>
+      <c r="AT11" s="8"/>
+      <c r="AU11" s="16"/>
+      <c r="AV11" s="8"/>
+      <c r="AW11" s="16"/>
+      <c r="AX11" s="8"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D12" s="25">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D12" s="25">
-        <f t="shared" si="2"/>
-        <v>83.333333333333343</v>
+        <v>84.615384615384613</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="8"/>
@@ -2864,23 +3091,39 @@
       <c r="AH12" s="8">
         <v>1</v>
       </c>
-      <c r="AI12" s="16"/>
-      <c r="AJ12" s="8"/>
+      <c r="AI12" s="16">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="35"/>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="16"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="16"/>
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="16"/>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="16"/>
+      <c r="AT12" s="8"/>
+      <c r="AU12" s="16"/>
+      <c r="AV12" s="8"/>
+      <c r="AW12" s="16"/>
+      <c r="AX12" s="8"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="25">
-        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E13" s="16"/>
@@ -2916,22 +3159,36 @@
       </c>
       <c r="AH13" s="8"/>
       <c r="AI13" s="16"/>
-      <c r="AJ13" s="8"/>
+      <c r="AJ13" s="35"/>
+      <c r="AK13" s="16"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="16"/>
+      <c r="AN13" s="8"/>
+      <c r="AO13" s="16"/>
+      <c r="AP13" s="8"/>
+      <c r="AQ13" s="16"/>
+      <c r="AR13" s="8"/>
+      <c r="AS13" s="16"/>
+      <c r="AT13" s="8"/>
+      <c r="AU13" s="16"/>
+      <c r="AV13" s="8"/>
+      <c r="AW13" s="16"/>
+      <c r="AX13" s="8"/>
     </row>
-    <row r="14" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="25">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E14" s="16"/>
@@ -2965,22 +3222,36 @@
       <c r="AG14" s="16"/>
       <c r="AH14" s="8"/>
       <c r="AI14" s="16"/>
-      <c r="AJ14" s="8"/>
+      <c r="AJ14" s="35"/>
+      <c r="AK14" s="16"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="16"/>
+      <c r="AN14" s="8"/>
+      <c r="AO14" s="16"/>
+      <c r="AP14" s="8"/>
+      <c r="AQ14" s="16"/>
+      <c r="AR14" s="8"/>
+      <c r="AS14" s="16"/>
+      <c r="AT14" s="8"/>
+      <c r="AU14" s="16"/>
+      <c r="AV14" s="8"/>
+      <c r="AW14" s="16"/>
+      <c r="AX14" s="8"/>
     </row>
-    <row r="15" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="25">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E15" s="16"/>
@@ -3014,22 +3285,36 @@
       <c r="AG15" s="16"/>
       <c r="AH15" s="8"/>
       <c r="AI15" s="16"/>
-      <c r="AJ15" s="8"/>
+      <c r="AJ15" s="35"/>
+      <c r="AK15" s="16"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="16"/>
+      <c r="AN15" s="8"/>
+      <c r="AO15" s="16"/>
+      <c r="AP15" s="8"/>
+      <c r="AQ15" s="16"/>
+      <c r="AR15" s="8"/>
+      <c r="AS15" s="16"/>
+      <c r="AT15" s="8"/>
+      <c r="AU15" s="16"/>
+      <c r="AV15" s="8"/>
+      <c r="AW15" s="16"/>
+      <c r="AX15" s="8"/>
     </row>
-    <row r="16" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="25">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E16" s="16"/>
@@ -3063,22 +3348,36 @@
       <c r="AG16" s="16"/>
       <c r="AH16" s="8"/>
       <c r="AI16" s="16"/>
-      <c r="AJ16" s="8"/>
+      <c r="AJ16" s="35"/>
+      <c r="AK16" s="16"/>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="16"/>
+      <c r="AN16" s="8"/>
+      <c r="AO16" s="16"/>
+      <c r="AP16" s="8"/>
+      <c r="AQ16" s="16"/>
+      <c r="AR16" s="8"/>
+      <c r="AS16" s="16"/>
+      <c r="AT16" s="8"/>
+      <c r="AU16" s="16"/>
+      <c r="AV16" s="8"/>
+      <c r="AW16" s="16"/>
+      <c r="AX16" s="8"/>
     </row>
-    <row r="17" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="25">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E17" s="16"/>
@@ -3112,22 +3411,36 @@
       <c r="AG17" s="16"/>
       <c r="AH17" s="8"/>
       <c r="AI17" s="16"/>
-      <c r="AJ17" s="8"/>
+      <c r="AJ17" s="35"/>
+      <c r="AK17" s="16"/>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="16"/>
+      <c r="AN17" s="8"/>
+      <c r="AO17" s="16"/>
+      <c r="AP17" s="8"/>
+      <c r="AQ17" s="16"/>
+      <c r="AR17" s="8"/>
+      <c r="AS17" s="16"/>
+      <c r="AT17" s="8"/>
+      <c r="AU17" s="16"/>
+      <c r="AV17" s="8"/>
+      <c r="AW17" s="16"/>
+      <c r="AX17" s="8"/>
     </row>
-    <row r="18" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="25">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E18" s="16"/>
@@ -3161,22 +3474,36 @@
       <c r="AG18" s="16"/>
       <c r="AH18" s="8"/>
       <c r="AI18" s="16"/>
-      <c r="AJ18" s="8"/>
+      <c r="AJ18" s="35"/>
+      <c r="AK18" s="16"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="16"/>
+      <c r="AN18" s="8"/>
+      <c r="AO18" s="16"/>
+      <c r="AP18" s="8"/>
+      <c r="AQ18" s="16"/>
+      <c r="AR18" s="8"/>
+      <c r="AS18" s="16"/>
+      <c r="AT18" s="8"/>
+      <c r="AU18" s="16"/>
+      <c r="AV18" s="8"/>
+      <c r="AW18" s="16"/>
+      <c r="AX18" s="8"/>
     </row>
-    <row r="19" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C19" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="25">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E19" s="16"/>
@@ -3210,22 +3537,36 @@
       <c r="AG19" s="16"/>
       <c r="AH19" s="8"/>
       <c r="AI19" s="16"/>
-      <c r="AJ19" s="8"/>
+      <c r="AJ19" s="35"/>
+      <c r="AK19" s="16"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="16"/>
+      <c r="AN19" s="8"/>
+      <c r="AO19" s="16"/>
+      <c r="AP19" s="8"/>
+      <c r="AQ19" s="16"/>
+      <c r="AR19" s="8"/>
+      <c r="AS19" s="16"/>
+      <c r="AT19" s="8"/>
+      <c r="AU19" s="16"/>
+      <c r="AV19" s="8"/>
+      <c r="AW19" s="16"/>
+      <c r="AX19" s="8"/>
     </row>
-    <row r="20" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="25">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E20" s="16"/>
@@ -3259,22 +3600,36 @@
       <c r="AG20" s="16"/>
       <c r="AH20" s="8"/>
       <c r="AI20" s="16"/>
-      <c r="AJ20" s="8"/>
+      <c r="AJ20" s="35"/>
+      <c r="AK20" s="16"/>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="16"/>
+      <c r="AN20" s="8"/>
+      <c r="AO20" s="16"/>
+      <c r="AP20" s="8"/>
+      <c r="AQ20" s="16"/>
+      <c r="AR20" s="8"/>
+      <c r="AS20" s="16"/>
+      <c r="AT20" s="8"/>
+      <c r="AU20" s="16"/>
+      <c r="AV20" s="8"/>
+      <c r="AW20" s="16"/>
+      <c r="AX20" s="8"/>
     </row>
-    <row r="21" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C21" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="25">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E21" s="16"/>
@@ -3308,22 +3663,36 @@
       <c r="AG21" s="16"/>
       <c r="AH21" s="8"/>
       <c r="AI21" s="16"/>
-      <c r="AJ21" s="8"/>
+      <c r="AJ21" s="35"/>
+      <c r="AK21" s="16"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="16"/>
+      <c r="AN21" s="8"/>
+      <c r="AO21" s="16"/>
+      <c r="AP21" s="8"/>
+      <c r="AQ21" s="16"/>
+      <c r="AR21" s="8"/>
+      <c r="AS21" s="16"/>
+      <c r="AT21" s="8"/>
+      <c r="AU21" s="16"/>
+      <c r="AV21" s="8"/>
+      <c r="AW21" s="16"/>
+      <c r="AX21" s="8"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="25">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C22" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="25">
-        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E22" s="16"/>
@@ -3362,24 +3731,40 @@
         <v>2</v>
       </c>
       <c r="AH22" s="8"/>
-      <c r="AI22" s="16"/>
-      <c r="AJ22" s="8"/>
+      <c r="AI22" s="16">
+        <v>2</v>
+      </c>
+      <c r="AJ22" s="35"/>
+      <c r="AK22" s="16"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="16"/>
+      <c r="AN22" s="8"/>
+      <c r="AO22" s="16"/>
+      <c r="AP22" s="8"/>
+      <c r="AQ22" s="16"/>
+      <c r="AR22" s="8"/>
+      <c r="AS22" s="16"/>
+      <c r="AT22" s="8"/>
+      <c r="AU22" s="16"/>
+      <c r="AV22" s="8"/>
+      <c r="AW22" s="16"/>
+      <c r="AX22" s="8"/>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D23" s="25">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C23" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D23" s="25">
-        <f t="shared" si="2"/>
-        <v>90</v>
+        <v>90.625</v>
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
@@ -3443,23 +3828,39 @@
         <v>1</v>
       </c>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="16"/>
-      <c r="AJ23" s="8"/>
+      <c r="AI23" s="16">
+        <v>2</v>
+      </c>
+      <c r="AJ23" s="35"/>
+      <c r="AK23" s="16"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="16"/>
+      <c r="AN23" s="8"/>
+      <c r="AO23" s="16"/>
+      <c r="AP23" s="8"/>
+      <c r="AQ23" s="16"/>
+      <c r="AR23" s="8"/>
+      <c r="AS23" s="16"/>
+      <c r="AT23" s="8"/>
+      <c r="AU23" s="16"/>
+      <c r="AV23" s="8"/>
+      <c r="AW23" s="16"/>
+      <c r="AX23" s="8"/>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="25">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C24" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="25">
-        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E24" s="16"/>
@@ -3505,22 +3906,36 @@
       <c r="AG24" s="16"/>
       <c r="AH24" s="8"/>
       <c r="AI24" s="16"/>
-      <c r="AJ24" s="8"/>
+      <c r="AJ24" s="35"/>
+      <c r="AK24" s="16"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="16"/>
+      <c r="AN24" s="8"/>
+      <c r="AO24" s="16"/>
+      <c r="AP24" s="8"/>
+      <c r="AQ24" s="16"/>
+      <c r="AR24" s="8"/>
+      <c r="AS24" s="16"/>
+      <c r="AT24" s="8"/>
+      <c r="AU24" s="16"/>
+      <c r="AV24" s="8"/>
+      <c r="AW24" s="16"/>
+      <c r="AX24" s="8"/>
     </row>
-    <row r="25" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C25" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="25">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E25" s="16"/>
@@ -3554,22 +3969,36 @@
       <c r="AG25" s="16"/>
       <c r="AH25" s="8"/>
       <c r="AI25" s="16"/>
-      <c r="AJ25" s="8"/>
+      <c r="AJ25" s="35"/>
+      <c r="AK25" s="16"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="16"/>
+      <c r="AN25" s="8"/>
+      <c r="AO25" s="16"/>
+      <c r="AP25" s="8"/>
+      <c r="AQ25" s="16"/>
+      <c r="AR25" s="8"/>
+      <c r="AS25" s="16"/>
+      <c r="AT25" s="8"/>
+      <c r="AU25" s="16"/>
+      <c r="AV25" s="8"/>
+      <c r="AW25" s="16"/>
+      <c r="AX25" s="8"/>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D26" s="25">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C26" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D26" s="25">
-        <f t="shared" si="2"/>
         <v>90.476190476190482</v>
       </c>
       <c r="E26" s="16">
@@ -3633,22 +4062,36 @@
       </c>
       <c r="AH26" s="8"/>
       <c r="AI26" s="16"/>
-      <c r="AJ26" s="8"/>
+      <c r="AJ26" s="35"/>
+      <c r="AK26" s="16"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="16"/>
+      <c r="AN26" s="8"/>
+      <c r="AO26" s="16"/>
+      <c r="AP26" s="8"/>
+      <c r="AQ26" s="16"/>
+      <c r="AR26" s="8"/>
+      <c r="AS26" s="16"/>
+      <c r="AT26" s="8"/>
+      <c r="AU26" s="16"/>
+      <c r="AV26" s="8"/>
+      <c r="AW26" s="16"/>
+      <c r="AX26" s="8"/>
     </row>
-    <row r="27" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="10">
+        <f t="shared" ref="B5:B27" si="3">SUM(E27,G27,I27,K27,M27,O27,Q27,S27,U27,W27,Y27,AA27,AC27,AE27,AG27,AI27)</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" ref="C5:C27" si="4">SUM(F27,H27,J27,L27,N27,P27,R27,T27,V27,X27,Z27,AB27,AD27,AF27,AH27,AJ27)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C27" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="26">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E27" s="17"/>
@@ -3683,14 +4126,28 @@
       <c r="AH27" s="11"/>
       <c r="AI27" s="17"/>
       <c r="AJ27" s="11"/>
+      <c r="AK27" s="17"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="17"/>
+      <c r="AN27" s="11"/>
+      <c r="AO27" s="17"/>
+      <c r="AP27" s="11"/>
+      <c r="AQ27" s="17"/>
+      <c r="AR27" s="11"/>
+      <c r="AS27" s="17"/>
+      <c r="AT27" s="11"/>
+      <c r="AU27" s="17"/>
+      <c r="AV27" s="11"/>
+      <c r="AW27" s="17"/>
+      <c r="AX27" s="11"/>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="20">
         <f>SUM(B4:B27)</f>
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="C28" s="20">
         <f>SUM(C4:C27)</f>
@@ -3698,726 +4155,976 @@
       </c>
       <c r="D28" s="24">
         <f>((B28-C28)/B28)*100</f>
-        <v>88.888888888888886</v>
+        <v>89.539748953974893</v>
       </c>
       <c r="E28" s="21">
         <f>SUM(E4:E27)</f>
         <v>9</v>
       </c>
       <c r="F28" s="21">
-        <f t="shared" ref="F28:AJ28" si="3">SUM(F4:F27)</f>
+        <f t="shared" ref="F28:AJ28" si="5">SUM(F4:F27)</f>
         <v>1</v>
       </c>
       <c r="G28" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="H28" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="I28" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="J28" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="K28" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="L28" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="M28" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="N28" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O28" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="P28" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="Q28" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="R28" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="S28" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="T28" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U28" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="V28" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W28" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="X28" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="Y28" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="Z28" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AA28" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="AB28" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AC28" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="AD28" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE28" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="AF28" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG28" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="AH28" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AI28" s="23">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>17</v>
       </c>
       <c r="AJ28" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AK28" s="23">
+        <f t="shared" ref="AK28:AX28" si="6">SUM(AK4:AK27)</f>
+        <v>0</v>
+      </c>
+      <c r="AL28" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AM28" s="23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN28" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AO28" s="23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AP28" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AR28" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AS28" s="23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AT28" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU28" s="23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AV28" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AW28" s="23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AX28" s="22">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="1"/>
+      <c r="AU29" s="1"/>
+      <c r="AV29" s="1"/>
+      <c r="AW29" s="1"/>
+      <c r="AX29" s="1"/>
+    </row>
+    <row r="30" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="1"/>
+      <c r="AV30" s="1"/>
+      <c r="AW30" s="1"/>
+      <c r="AX30" s="1"/>
+    </row>
+    <row r="31" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A31" s="33" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6">
-        <f>SUM(E31:AJ31)</f>
+        <f>SUM(E31:AX31)</f>
         <v>6</v>
       </c>
       <c r="D31" s="29">
         <f>C31/$C$28</f>
         <v>0.24</v>
       </c>
-      <c r="E31" s="48"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="48">
-        <v>1</v>
-      </c>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="48">
-        <v>2</v>
-      </c>
-      <c r="R31" s="49"/>
-      <c r="S31" s="46"/>
-      <c r="T31" s="47"/>
-      <c r="U31" s="46"/>
-      <c r="V31" s="47"/>
-      <c r="W31" s="48">
-        <v>2</v>
-      </c>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="49"/>
-      <c r="AA31" s="48">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="49"/>
-      <c r="AC31" s="48"/>
-      <c r="AD31" s="49"/>
-      <c r="AE31" s="46"/>
-      <c r="AF31" s="47"/>
-      <c r="AG31" s="48"/>
-      <c r="AH31" s="49"/>
-      <c r="AI31" s="48"/>
-      <c r="AJ31" s="49"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="40">
+        <v>1</v>
+      </c>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="40">
+        <v>2</v>
+      </c>
+      <c r="R31" s="41"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="40">
+        <v>2</v>
+      </c>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="41"/>
+      <c r="AA31" s="40">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="41"/>
+      <c r="AC31" s="40"/>
+      <c r="AD31" s="41"/>
+      <c r="AE31" s="42"/>
+      <c r="AF31" s="43"/>
+      <c r="AG31" s="40"/>
+      <c r="AH31" s="41"/>
+      <c r="AI31" s="42"/>
+      <c r="AJ31" s="43"/>
+      <c r="AK31" s="40"/>
+      <c r="AL31" s="41"/>
+      <c r="AM31" s="40"/>
+      <c r="AN31" s="41"/>
+      <c r="AO31" s="40"/>
+      <c r="AP31" s="41"/>
+      <c r="AQ31" s="40"/>
+      <c r="AR31" s="41"/>
+      <c r="AS31" s="40"/>
+      <c r="AT31" s="41"/>
+      <c r="AU31" s="40"/>
+      <c r="AV31" s="41"/>
+      <c r="AW31" s="40"/>
+      <c r="AX31" s="41"/>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2">
-        <f t="shared" ref="C32:C42" si="4">SUM(E32:AJ32)</f>
+        <f t="shared" ref="C32:C42" si="7">SUM(E32:AX32)</f>
         <v>1</v>
       </c>
       <c r="D32" s="30">
-        <f t="shared" ref="D32:D42" si="5">C32/$C$28</f>
+        <f t="shared" ref="D32:D42" si="8">C32/$C$28</f>
         <v>0.04</v>
       </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="40">
-        <v>1</v>
-      </c>
-      <c r="L32" s="41"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="40"/>
-      <c r="X32" s="41"/>
-      <c r="Y32" s="40"/>
-      <c r="Z32" s="41"/>
-      <c r="AA32" s="40"/>
-      <c r="AB32" s="41"/>
-      <c r="AC32" s="40"/>
-      <c r="AD32" s="41"/>
-      <c r="AE32" s="42"/>
-      <c r="AF32" s="43"/>
-      <c r="AG32" s="40"/>
-      <c r="AH32" s="41"/>
-      <c r="AI32" s="40"/>
-      <c r="AJ32" s="41"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="44">
+        <v>1</v>
+      </c>
+      <c r="L32" s="45"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="47"/>
+      <c r="W32" s="44"/>
+      <c r="X32" s="45"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="45"/>
+      <c r="AA32" s="44"/>
+      <c r="AB32" s="45"/>
+      <c r="AC32" s="44"/>
+      <c r="AD32" s="45"/>
+      <c r="AE32" s="46"/>
+      <c r="AF32" s="47"/>
+      <c r="AG32" s="44"/>
+      <c r="AH32" s="45"/>
+      <c r="AI32" s="46"/>
+      <c r="AJ32" s="47"/>
+      <c r="AK32" s="44"/>
+      <c r="AL32" s="45"/>
+      <c r="AM32" s="44"/>
+      <c r="AN32" s="45"/>
+      <c r="AO32" s="44"/>
+      <c r="AP32" s="45"/>
+      <c r="AQ32" s="44"/>
+      <c r="AR32" s="45"/>
+      <c r="AS32" s="44"/>
+      <c r="AT32" s="45"/>
+      <c r="AU32" s="44"/>
+      <c r="AV32" s="45"/>
+      <c r="AW32" s="44"/>
+      <c r="AX32" s="45"/>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D33" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="42"/>
-      <c r="T33" s="43"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="43"/>
-      <c r="W33" s="40"/>
-      <c r="X33" s="41"/>
-      <c r="Y33" s="40"/>
-      <c r="Z33" s="41"/>
-      <c r="AA33" s="40"/>
-      <c r="AB33" s="41"/>
-      <c r="AC33" s="40"/>
-      <c r="AD33" s="41"/>
-      <c r="AE33" s="42"/>
-      <c r="AF33" s="43"/>
-      <c r="AG33" s="40"/>
-      <c r="AH33" s="41"/>
-      <c r="AI33" s="40"/>
-      <c r="AJ33" s="41"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="44"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="47"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="45"/>
+      <c r="AA33" s="44"/>
+      <c r="AB33" s="45"/>
+      <c r="AC33" s="44"/>
+      <c r="AD33" s="45"/>
+      <c r="AE33" s="46"/>
+      <c r="AF33" s="47"/>
+      <c r="AG33" s="44"/>
+      <c r="AH33" s="45"/>
+      <c r="AI33" s="46"/>
+      <c r="AJ33" s="47"/>
+      <c r="AK33" s="44"/>
+      <c r="AL33" s="45"/>
+      <c r="AM33" s="44"/>
+      <c r="AN33" s="45"/>
+      <c r="AO33" s="44"/>
+      <c r="AP33" s="45"/>
+      <c r="AQ33" s="44"/>
+      <c r="AR33" s="45"/>
+      <c r="AS33" s="44"/>
+      <c r="AT33" s="45"/>
+      <c r="AU33" s="44"/>
+      <c r="AV33" s="45"/>
+      <c r="AW33" s="44"/>
+      <c r="AX33" s="45"/>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A34" s="34" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2">
-        <f>SUM(E34:AJ34)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="D34" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.16</v>
       </c>
-      <c r="E34" s="40">
-        <v>1</v>
-      </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="40">
-        <v>1</v>
-      </c>
-      <c r="H34" s="41"/>
-      <c r="I34" s="40">
-        <v>1</v>
-      </c>
-      <c r="J34" s="41"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="42"/>
-      <c r="T34" s="43"/>
-      <c r="U34" s="42"/>
-      <c r="V34" s="43"/>
-      <c r="W34" s="40"/>
-      <c r="X34" s="41"/>
-      <c r="Y34" s="40">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="41"/>
-      <c r="AA34" s="40"/>
-      <c r="AB34" s="41"/>
-      <c r="AC34" s="40"/>
-      <c r="AD34" s="41"/>
-      <c r="AE34" s="42"/>
-      <c r="AF34" s="43"/>
-      <c r="AG34" s="40"/>
-      <c r="AH34" s="41"/>
-      <c r="AI34" s="40"/>
-      <c r="AJ34" s="41"/>
+      <c r="E34" s="44">
+        <v>1</v>
+      </c>
+      <c r="F34" s="45"/>
+      <c r="G34" s="44">
+        <v>1</v>
+      </c>
+      <c r="H34" s="45"/>
+      <c r="I34" s="44">
+        <v>1</v>
+      </c>
+      <c r="J34" s="45"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="46"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="46"/>
+      <c r="V34" s="47"/>
+      <c r="W34" s="44"/>
+      <c r="X34" s="45"/>
+      <c r="Y34" s="44">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="45"/>
+      <c r="AA34" s="44"/>
+      <c r="AB34" s="45"/>
+      <c r="AC34" s="44"/>
+      <c r="AD34" s="45"/>
+      <c r="AE34" s="46"/>
+      <c r="AF34" s="47"/>
+      <c r="AG34" s="44"/>
+      <c r="AH34" s="45"/>
+      <c r="AI34" s="46"/>
+      <c r="AJ34" s="47"/>
+      <c r="AK34" s="44"/>
+      <c r="AL34" s="45"/>
+      <c r="AM34" s="44"/>
+      <c r="AN34" s="45"/>
+      <c r="AO34" s="44"/>
+      <c r="AP34" s="45"/>
+      <c r="AQ34" s="44"/>
+      <c r="AR34" s="45"/>
+      <c r="AS34" s="44"/>
+      <c r="AT34" s="45"/>
+      <c r="AU34" s="44"/>
+      <c r="AV34" s="45"/>
+      <c r="AW34" s="44"/>
+      <c r="AX34" s="45"/>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A35" s="34" t="s">
         <v>32</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="D35" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.16</v>
       </c>
-      <c r="E35" s="40"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="40">
-        <v>1</v>
-      </c>
-      <c r="H35" s="41"/>
-      <c r="I35" s="40">
-        <v>2</v>
-      </c>
-      <c r="J35" s="41"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="42"/>
-      <c r="T35" s="43"/>
-      <c r="U35" s="42"/>
-      <c r="V35" s="43"/>
-      <c r="W35" s="40"/>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="40"/>
-      <c r="Z35" s="41"/>
-      <c r="AA35" s="40"/>
-      <c r="AB35" s="41"/>
-      <c r="AC35" s="40">
-        <v>1</v>
-      </c>
-      <c r="AD35" s="41"/>
-      <c r="AE35" s="42"/>
-      <c r="AF35" s="43"/>
-      <c r="AG35" s="40"/>
-      <c r="AH35" s="41"/>
-      <c r="AI35" s="40"/>
-      <c r="AJ35" s="41"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="44">
+        <v>1</v>
+      </c>
+      <c r="H35" s="45"/>
+      <c r="I35" s="44">
+        <v>2</v>
+      </c>
+      <c r="J35" s="45"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="46"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="46"/>
+      <c r="V35" s="47"/>
+      <c r="W35" s="44"/>
+      <c r="X35" s="45"/>
+      <c r="Y35" s="44"/>
+      <c r="Z35" s="45"/>
+      <c r="AA35" s="44"/>
+      <c r="AB35" s="45"/>
+      <c r="AC35" s="44">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="45"/>
+      <c r="AE35" s="46"/>
+      <c r="AF35" s="47"/>
+      <c r="AG35" s="44"/>
+      <c r="AH35" s="45"/>
+      <c r="AI35" s="46"/>
+      <c r="AJ35" s="47"/>
+      <c r="AK35" s="44"/>
+      <c r="AL35" s="45"/>
+      <c r="AM35" s="44"/>
+      <c r="AN35" s="45"/>
+      <c r="AO35" s="44"/>
+      <c r="AP35" s="45"/>
+      <c r="AQ35" s="44"/>
+      <c r="AR35" s="45"/>
+      <c r="AS35" s="44"/>
+      <c r="AT35" s="45"/>
+      <c r="AU35" s="44"/>
+      <c r="AV35" s="45"/>
+      <c r="AW35" s="44"/>
+      <c r="AX35" s="45"/>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A36" s="27" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="28"/>
       <c r="C36" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="D36" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.2</v>
       </c>
-      <c r="E36" s="44"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="44">
-        <v>1</v>
-      </c>
-      <c r="H36" s="45"/>
-      <c r="I36" s="44">
+      <c r="E36" s="48"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="48">
+        <v>1</v>
+      </c>
+      <c r="H36" s="49"/>
+      <c r="I36" s="48">
         <v>3</v>
       </c>
-      <c r="J36" s="45"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="44"/>
-      <c r="R36" s="45"/>
-      <c r="S36" s="42"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="42"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="44"/>
-      <c r="X36" s="45"/>
-      <c r="Y36" s="44"/>
-      <c r="Z36" s="45"/>
-      <c r="AA36" s="44"/>
-      <c r="AB36" s="45"/>
-      <c r="AC36" s="44"/>
-      <c r="AD36" s="45"/>
-      <c r="AE36" s="42"/>
-      <c r="AF36" s="43"/>
-      <c r="AG36" s="44">
-        <v>1</v>
-      </c>
-      <c r="AH36" s="45"/>
-      <c r="AI36" s="44"/>
-      <c r="AJ36" s="45"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="46"/>
+      <c r="V36" s="47"/>
+      <c r="W36" s="48"/>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="48"/>
+      <c r="Z36" s="49"/>
+      <c r="AA36" s="48"/>
+      <c r="AB36" s="49"/>
+      <c r="AC36" s="48"/>
+      <c r="AD36" s="49"/>
+      <c r="AE36" s="46"/>
+      <c r="AF36" s="47"/>
+      <c r="AG36" s="48">
+        <v>1</v>
+      </c>
+      <c r="AH36" s="49"/>
+      <c r="AI36" s="46"/>
+      <c r="AJ36" s="47"/>
+      <c r="AK36" s="48"/>
+      <c r="AL36" s="49"/>
+      <c r="AM36" s="48"/>
+      <c r="AN36" s="49"/>
+      <c r="AO36" s="48"/>
+      <c r="AP36" s="49"/>
+      <c r="AQ36" s="48"/>
+      <c r="AR36" s="49"/>
+      <c r="AS36" s="48"/>
+      <c r="AT36" s="49"/>
+      <c r="AU36" s="48"/>
+      <c r="AV36" s="49"/>
+      <c r="AW36" s="48"/>
+      <c r="AX36" s="49"/>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A37" s="34" t="s">
         <v>34</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="D37" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.08</v>
       </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="40">
-        <v>1</v>
-      </c>
-      <c r="H37" s="41"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="40">
-        <v>1</v>
-      </c>
-      <c r="N37" s="41"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
-      <c r="S37" s="42"/>
-      <c r="T37" s="43"/>
-      <c r="U37" s="42"/>
-      <c r="V37" s="43"/>
-      <c r="W37" s="40"/>
-      <c r="X37" s="41"/>
-      <c r="Y37" s="40"/>
-      <c r="Z37" s="41"/>
-      <c r="AA37" s="40"/>
-      <c r="AB37" s="41"/>
-      <c r="AC37" s="40"/>
-      <c r="AD37" s="41"/>
-      <c r="AE37" s="42"/>
-      <c r="AF37" s="43"/>
-      <c r="AG37" s="40"/>
-      <c r="AH37" s="41"/>
-      <c r="AI37" s="40"/>
-      <c r="AJ37" s="41"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="44">
+        <v>1</v>
+      </c>
+      <c r="H37" s="45"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="44">
+        <v>1</v>
+      </c>
+      <c r="N37" s="45"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="46"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="46"/>
+      <c r="V37" s="47"/>
+      <c r="W37" s="44"/>
+      <c r="X37" s="45"/>
+      <c r="Y37" s="44"/>
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="44"/>
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="44"/>
+      <c r="AD37" s="45"/>
+      <c r="AE37" s="46"/>
+      <c r="AF37" s="47"/>
+      <c r="AG37" s="44"/>
+      <c r="AH37" s="45"/>
+      <c r="AI37" s="46"/>
+      <c r="AJ37" s="47"/>
+      <c r="AK37" s="44"/>
+      <c r="AL37" s="45"/>
+      <c r="AM37" s="44"/>
+      <c r="AN37" s="45"/>
+      <c r="AO37" s="44"/>
+      <c r="AP37" s="45"/>
+      <c r="AQ37" s="44"/>
+      <c r="AR37" s="45"/>
+      <c r="AS37" s="44"/>
+      <c r="AT37" s="45"/>
+      <c r="AU37" s="44"/>
+      <c r="AV37" s="45"/>
+      <c r="AW37" s="44"/>
+      <c r="AX37" s="45"/>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D38" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.04</v>
       </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="40">
-        <v>1</v>
-      </c>
-      <c r="L38" s="41"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="42"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="42"/>
-      <c r="V38" s="43"/>
-      <c r="W38" s="40"/>
-      <c r="X38" s="41"/>
-      <c r="Y38" s="40"/>
-      <c r="Z38" s="41"/>
-      <c r="AA38" s="40"/>
-      <c r="AB38" s="41"/>
-      <c r="AC38" s="40"/>
-      <c r="AD38" s="41"/>
-      <c r="AE38" s="42"/>
-      <c r="AF38" s="43"/>
-      <c r="AG38" s="40"/>
-      <c r="AH38" s="41"/>
-      <c r="AI38" s="40"/>
-      <c r="AJ38" s="41"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="44">
+        <v>1</v>
+      </c>
+      <c r="L38" s="45"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="46"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="46"/>
+      <c r="V38" s="47"/>
+      <c r="W38" s="44"/>
+      <c r="X38" s="45"/>
+      <c r="Y38" s="44"/>
+      <c r="Z38" s="45"/>
+      <c r="AA38" s="44"/>
+      <c r="AB38" s="45"/>
+      <c r="AC38" s="44"/>
+      <c r="AD38" s="45"/>
+      <c r="AE38" s="46"/>
+      <c r="AF38" s="47"/>
+      <c r="AG38" s="44"/>
+      <c r="AH38" s="45"/>
+      <c r="AI38" s="46"/>
+      <c r="AJ38" s="47"/>
+      <c r="AK38" s="44"/>
+      <c r="AL38" s="45"/>
+      <c r="AM38" s="44"/>
+      <c r="AN38" s="45"/>
+      <c r="AO38" s="44"/>
+      <c r="AP38" s="45"/>
+      <c r="AQ38" s="44"/>
+      <c r="AR38" s="45"/>
+      <c r="AS38" s="44"/>
+      <c r="AT38" s="45"/>
+      <c r="AU38" s="44"/>
+      <c r="AV38" s="45"/>
+      <c r="AW38" s="44"/>
+      <c r="AX38" s="45"/>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D39" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.04</v>
       </c>
-      <c r="E39" s="40"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="40">
-        <v>1</v>
-      </c>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="42"/>
-      <c r="T39" s="43"/>
-      <c r="U39" s="42"/>
-      <c r="V39" s="43"/>
-      <c r="W39" s="40"/>
-      <c r="X39" s="41"/>
-      <c r="Y39" s="40"/>
-      <c r="Z39" s="41"/>
-      <c r="AA39" s="40"/>
-      <c r="AB39" s="41"/>
-      <c r="AC39" s="40"/>
-      <c r="AD39" s="41"/>
-      <c r="AE39" s="42"/>
-      <c r="AF39" s="43"/>
-      <c r="AG39" s="40"/>
-      <c r="AH39" s="41"/>
-      <c r="AI39" s="40"/>
-      <c r="AJ39" s="41"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="44">
+        <v>1</v>
+      </c>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="46"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="46"/>
+      <c r="V39" s="47"/>
+      <c r="W39" s="44"/>
+      <c r="X39" s="45"/>
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="45"/>
+      <c r="AA39" s="44"/>
+      <c r="AB39" s="45"/>
+      <c r="AC39" s="44"/>
+      <c r="AD39" s="45"/>
+      <c r="AE39" s="46"/>
+      <c r="AF39" s="47"/>
+      <c r="AG39" s="44"/>
+      <c r="AH39" s="45"/>
+      <c r="AI39" s="46"/>
+      <c r="AJ39" s="47"/>
+      <c r="AK39" s="44"/>
+      <c r="AL39" s="45"/>
+      <c r="AM39" s="44"/>
+      <c r="AN39" s="45"/>
+      <c r="AO39" s="44"/>
+      <c r="AP39" s="45"/>
+      <c r="AQ39" s="44"/>
+      <c r="AR39" s="45"/>
+      <c r="AS39" s="44"/>
+      <c r="AT39" s="45"/>
+      <c r="AU39" s="44"/>
+      <c r="AV39" s="45"/>
+      <c r="AW39" s="44"/>
+      <c r="AX39" s="45"/>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D40" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.04</v>
       </c>
-      <c r="E40" s="40"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="40">
-        <v>1</v>
-      </c>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
-      <c r="S40" s="42"/>
-      <c r="T40" s="43"/>
-      <c r="U40" s="42"/>
-      <c r="V40" s="43"/>
-      <c r="W40" s="40"/>
-      <c r="X40" s="41"/>
-      <c r="Y40" s="40"/>
-      <c r="Z40" s="41"/>
-      <c r="AA40" s="40"/>
-      <c r="AB40" s="41"/>
-      <c r="AC40" s="40"/>
-      <c r="AD40" s="41"/>
-      <c r="AE40" s="42"/>
-      <c r="AF40" s="43"/>
-      <c r="AG40" s="40"/>
-      <c r="AH40" s="41"/>
-      <c r="AI40" s="40"/>
-      <c r="AJ40" s="41"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="44">
+        <v>1</v>
+      </c>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="44"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="46"/>
+      <c r="T40" s="47"/>
+      <c r="U40" s="46"/>
+      <c r="V40" s="47"/>
+      <c r="W40" s="44"/>
+      <c r="X40" s="45"/>
+      <c r="Y40" s="44"/>
+      <c r="Z40" s="45"/>
+      <c r="AA40" s="44"/>
+      <c r="AB40" s="45"/>
+      <c r="AC40" s="44"/>
+      <c r="AD40" s="45"/>
+      <c r="AE40" s="46"/>
+      <c r="AF40" s="47"/>
+      <c r="AG40" s="44"/>
+      <c r="AH40" s="45"/>
+      <c r="AI40" s="46"/>
+      <c r="AJ40" s="47"/>
+      <c r="AK40" s="44"/>
+      <c r="AL40" s="45"/>
+      <c r="AM40" s="44"/>
+      <c r="AN40" s="45"/>
+      <c r="AO40" s="44"/>
+      <c r="AP40" s="45"/>
+      <c r="AQ40" s="44"/>
+      <c r="AR40" s="45"/>
+      <c r="AS40" s="44"/>
+      <c r="AT40" s="45"/>
+      <c r="AU40" s="44"/>
+      <c r="AV40" s="45"/>
+      <c r="AW40" s="44"/>
+      <c r="AX40" s="45"/>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D41" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="40"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
-      <c r="S41" s="42"/>
-      <c r="T41" s="43"/>
-      <c r="U41" s="42"/>
-      <c r="V41" s="43"/>
-      <c r="W41" s="40"/>
-      <c r="X41" s="41"/>
-      <c r="Y41" s="40"/>
-      <c r="Z41" s="41"/>
-      <c r="AA41" s="40"/>
-      <c r="AB41" s="41"/>
-      <c r="AC41" s="40"/>
-      <c r="AD41" s="41"/>
-      <c r="AE41" s="42"/>
-      <c r="AF41" s="43"/>
-      <c r="AG41" s="40"/>
-      <c r="AH41" s="41"/>
-      <c r="AI41" s="40"/>
-      <c r="AJ41" s="41"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="44"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="46"/>
+      <c r="T41" s="47"/>
+      <c r="U41" s="46"/>
+      <c r="V41" s="47"/>
+      <c r="W41" s="44"/>
+      <c r="X41" s="45"/>
+      <c r="Y41" s="44"/>
+      <c r="Z41" s="45"/>
+      <c r="AA41" s="44"/>
+      <c r="AB41" s="45"/>
+      <c r="AC41" s="44"/>
+      <c r="AD41" s="45"/>
+      <c r="AE41" s="46"/>
+      <c r="AF41" s="47"/>
+      <c r="AG41" s="44"/>
+      <c r="AH41" s="45"/>
+      <c r="AI41" s="46"/>
+      <c r="AJ41" s="47"/>
+      <c r="AK41" s="44"/>
+      <c r="AL41" s="45"/>
+      <c r="AM41" s="44"/>
+      <c r="AN41" s="45"/>
+      <c r="AO41" s="44"/>
+      <c r="AP41" s="45"/>
+      <c r="AQ41" s="44"/>
+      <c r="AR41" s="45"/>
+      <c r="AS41" s="44"/>
+      <c r="AT41" s="45"/>
+      <c r="AU41" s="44"/>
+      <c r="AV41" s="45"/>
+      <c r="AW41" s="44"/>
+      <c r="AX41" s="45"/>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D42" s="32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="36"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="36"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="37"/>
-      <c r="S42" s="38"/>
-      <c r="T42" s="39"/>
-      <c r="U42" s="38"/>
-      <c r="V42" s="39"/>
-      <c r="W42" s="36"/>
-      <c r="X42" s="37"/>
-      <c r="Y42" s="36"/>
-      <c r="Z42" s="37"/>
-      <c r="AA42" s="36"/>
-      <c r="AB42" s="37"/>
-      <c r="AC42" s="36"/>
-      <c r="AD42" s="37"/>
-      <c r="AE42" s="38"/>
-      <c r="AF42" s="39"/>
-      <c r="AG42" s="36"/>
-      <c r="AH42" s="37"/>
-      <c r="AI42" s="36"/>
-      <c r="AJ42" s="37"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="50"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="51"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="51"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="51"/>
+      <c r="S42" s="52"/>
+      <c r="T42" s="53"/>
+      <c r="U42" s="52"/>
+      <c r="V42" s="53"/>
+      <c r="W42" s="50"/>
+      <c r="X42" s="51"/>
+      <c r="Y42" s="50"/>
+      <c r="Z42" s="51"/>
+      <c r="AA42" s="50"/>
+      <c r="AB42" s="51"/>
+      <c r="AC42" s="50"/>
+      <c r="AD42" s="51"/>
+      <c r="AE42" s="52"/>
+      <c r="AF42" s="53"/>
+      <c r="AG42" s="50"/>
+      <c r="AH42" s="51"/>
+      <c r="AI42" s="52"/>
+      <c r="AJ42" s="53"/>
+      <c r="AK42" s="50"/>
+      <c r="AL42" s="51"/>
+      <c r="AM42" s="50"/>
+      <c r="AN42" s="51"/>
+      <c r="AO42" s="50"/>
+      <c r="AP42" s="51"/>
+      <c r="AQ42" s="50"/>
+      <c r="AR42" s="51"/>
+      <c r="AS42" s="50"/>
+      <c r="AT42" s="51"/>
+      <c r="AU42" s="50"/>
+      <c r="AV42" s="51"/>
+      <c r="AW42" s="50"/>
+      <c r="AX42" s="51"/>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -4455,22 +5162,457 @@
       <c r="AI43" s="4"/>
       <c r="AJ43" s="4"/>
     </row>
+    <row r="54" spans="5:27" x14ac:dyDescent="0.2">
+      <c r="E54" s="1">
+        <f>F28</f>
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <f>H28</f>
+        <v>4</v>
+      </c>
+      <c r="G54" s="1">
+        <f>J28</f>
+        <v>6</v>
+      </c>
+      <c r="H54" s="1">
+        <f>L28</f>
+        <v>2</v>
+      </c>
+      <c r="I54" s="1">
+        <f>N28</f>
+        <v>1</v>
+      </c>
+      <c r="J54" s="1">
+        <f>P28</f>
+        <v>3</v>
+      </c>
+      <c r="K54" s="1">
+        <f>R28</f>
+        <v>2</v>
+      </c>
+      <c r="L54" s="1">
+        <f>T28</f>
+        <v>0</v>
+      </c>
+      <c r="M54" s="1">
+        <f>V28</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="1">
+        <f>X28</f>
+        <v>2</v>
+      </c>
+      <c r="O54" s="1">
+        <f>Z28</f>
+        <v>1</v>
+      </c>
+      <c r="P54" s="1">
+        <f>AB28</f>
+        <v>1</v>
+      </c>
+      <c r="Q54" s="1">
+        <f>AD28</f>
+        <v>1</v>
+      </c>
+      <c r="R54" s="1">
+        <f>AF28</f>
+        <v>0</v>
+      </c>
+      <c r="S54" s="1">
+        <f>AH28</f>
+        <v>1</v>
+      </c>
+      <c r="T54" s="1">
+        <f>AJ28</f>
+        <v>0</v>
+      </c>
+      <c r="U54" s="1">
+        <f>AL28</f>
+        <v>0</v>
+      </c>
+      <c r="V54" s="1">
+        <f>AN28</f>
+        <v>0</v>
+      </c>
+      <c r="W54" s="1">
+        <f>AP28</f>
+        <v>0</v>
+      </c>
+      <c r="X54" s="1">
+        <f>AR28</f>
+        <v>0</v>
+      </c>
+      <c r="Y54" s="1">
+        <f>AT28</f>
+        <v>0</v>
+      </c>
+      <c r="Z54" s="1">
+        <f>AV28</f>
+        <v>0</v>
+      </c>
+      <c r="AA54" s="1">
+        <f>AX28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="5:27" x14ac:dyDescent="0.2">
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2</v>
+      </c>
+      <c r="G55" s="1">
+        <v>3</v>
+      </c>
+      <c r="H55" s="1">
+        <v>4</v>
+      </c>
+      <c r="I55" s="1">
+        <v>5</v>
+      </c>
+      <c r="J55" s="1">
+        <v>6</v>
+      </c>
+      <c r="K55" s="1">
+        <v>7</v>
+      </c>
+      <c r="L55" s="1">
+        <v>8</v>
+      </c>
+      <c r="M55" s="1">
+        <v>9</v>
+      </c>
+      <c r="N55" s="1">
+        <v>10</v>
+      </c>
+      <c r="O55" s="1">
+        <v>11</v>
+      </c>
+      <c r="P55" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>13</v>
+      </c>
+      <c r="R55" s="1">
+        <v>14</v>
+      </c>
+      <c r="S55" s="1">
+        <v>15</v>
+      </c>
+      <c r="T55" s="1">
+        <v>16</v>
+      </c>
+      <c r="U55" s="1">
+        <v>17</v>
+      </c>
+      <c r="V55" s="1">
+        <v>18</v>
+      </c>
+      <c r="W55" s="1">
+        <v>19</v>
+      </c>
+      <c r="X55" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>21</v>
+      </c>
+      <c r="Z55" s="1">
+        <v>22</v>
+      </c>
+      <c r="AA55" s="1">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="224">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
+  <mergeCells count="322">
+    <mergeCell ref="AK41:AL41"/>
+    <mergeCell ref="AM41:AN41"/>
+    <mergeCell ref="AO41:AP41"/>
+    <mergeCell ref="AQ41:AR41"/>
+    <mergeCell ref="AS41:AT41"/>
+    <mergeCell ref="AU41:AV41"/>
+    <mergeCell ref="AW41:AX41"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="AO42:AP42"/>
+    <mergeCell ref="AQ42:AR42"/>
+    <mergeCell ref="AS42:AT42"/>
+    <mergeCell ref="AU42:AV42"/>
+    <mergeCell ref="AW42:AX42"/>
+    <mergeCell ref="AK39:AL39"/>
+    <mergeCell ref="AM39:AN39"/>
+    <mergeCell ref="AO39:AP39"/>
+    <mergeCell ref="AQ39:AR39"/>
+    <mergeCell ref="AS39:AT39"/>
+    <mergeCell ref="AU39:AV39"/>
+    <mergeCell ref="AW39:AX39"/>
+    <mergeCell ref="AK40:AL40"/>
+    <mergeCell ref="AM40:AN40"/>
+    <mergeCell ref="AO40:AP40"/>
+    <mergeCell ref="AQ40:AR40"/>
+    <mergeCell ref="AS40:AT40"/>
+    <mergeCell ref="AU40:AV40"/>
+    <mergeCell ref="AW40:AX40"/>
+    <mergeCell ref="AK37:AL37"/>
+    <mergeCell ref="AM37:AN37"/>
+    <mergeCell ref="AO37:AP37"/>
+    <mergeCell ref="AQ37:AR37"/>
+    <mergeCell ref="AS37:AT37"/>
+    <mergeCell ref="AU37:AV37"/>
+    <mergeCell ref="AW37:AX37"/>
+    <mergeCell ref="AK38:AL38"/>
+    <mergeCell ref="AM38:AN38"/>
+    <mergeCell ref="AO38:AP38"/>
+    <mergeCell ref="AQ38:AR38"/>
+    <mergeCell ref="AS38:AT38"/>
+    <mergeCell ref="AU38:AV38"/>
+    <mergeCell ref="AW38:AX38"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="AM35:AN35"/>
+    <mergeCell ref="AO35:AP35"/>
+    <mergeCell ref="AQ35:AR35"/>
+    <mergeCell ref="AS35:AT35"/>
+    <mergeCell ref="AU35:AV35"/>
+    <mergeCell ref="AW35:AX35"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AN36"/>
+    <mergeCell ref="AO36:AP36"/>
+    <mergeCell ref="AQ36:AR36"/>
+    <mergeCell ref="AS36:AT36"/>
+    <mergeCell ref="AU36:AV36"/>
+    <mergeCell ref="AW36:AX36"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="AO33:AP33"/>
+    <mergeCell ref="AQ33:AR33"/>
+    <mergeCell ref="AS33:AT33"/>
+    <mergeCell ref="AU33:AV33"/>
+    <mergeCell ref="AW33:AX33"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AM34:AN34"/>
+    <mergeCell ref="AO34:AP34"/>
+    <mergeCell ref="AQ34:AR34"/>
+    <mergeCell ref="AS34:AT34"/>
+    <mergeCell ref="AU34:AV34"/>
+    <mergeCell ref="AW34:AX34"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AM31:AN31"/>
+    <mergeCell ref="AO31:AP31"/>
+    <mergeCell ref="AQ31:AR31"/>
+    <mergeCell ref="AS31:AT31"/>
+    <mergeCell ref="AU31:AV31"/>
+    <mergeCell ref="AW31:AX31"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="AM32:AN32"/>
+    <mergeCell ref="AO32:AP32"/>
+    <mergeCell ref="AQ32:AR32"/>
+    <mergeCell ref="AS32:AT32"/>
+    <mergeCell ref="AU32:AV32"/>
+    <mergeCell ref="AW32:AX32"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AC42:AD42"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="AE40:AF40"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="AI40:AJ40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="Y40:Z40"/>
+    <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="AC41:AD41"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="AG41:AH41"/>
+    <mergeCell ref="AI41:AJ41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="AA41:AB41"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="AC38:AD38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="AC40:AD40"/>
+    <mergeCell ref="AE38:AF38"/>
+    <mergeCell ref="AG38:AH38"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="AA38:AB38"/>
+    <mergeCell ref="AC39:AD39"/>
+    <mergeCell ref="AE39:AF39"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AI39:AJ39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="AA39:AB39"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="AC36:AD36"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AE37:AF37"/>
+    <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="AA37:AB37"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="AA35:AB35"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="AC32:AD32"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AC31:AD31"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
@@ -4495,192 +5637,20 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="AA32:AB32"/>
-    <mergeCell ref="AC32:AD32"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="AA35:AB35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="AC36:AD36"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="AE37:AF37"/>
-    <mergeCell ref="AG37:AH37"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="Y37:Z37"/>
-    <mergeCell ref="AA37:AB37"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="AE38:AF38"/>
-    <mergeCell ref="AG38:AH38"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="Y38:Z38"/>
-    <mergeCell ref="AA38:AB38"/>
-    <mergeCell ref="AC39:AD39"/>
-    <mergeCell ref="AE39:AF39"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AI39:AJ39"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="AA39:AB39"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="AC38:AD38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="AC40:AD40"/>
-    <mergeCell ref="AE40:AF40"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="AI40:AJ40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="Y40:Z40"/>
-    <mergeCell ref="AA40:AB40"/>
-    <mergeCell ref="AC41:AD41"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="AG41:AH41"/>
-    <mergeCell ref="AI41:AJ41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="AA41:AB41"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="AC42:AD42"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D27">
     <cfRule type="colorScale" priority="3">
